--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8520"/>
   </bookViews>
   <sheets>
-    <sheet name="0525V2" sheetId="26" r:id="rId1"/>
+    <sheet name="0619" sheetId="27" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="427">
   <si>
     <t>N</t>
   </si>
@@ -54,20 +54,1263 @@
     <t>6002135235083</t>
   </si>
   <si>
-    <t>7011230810087</t>
-  </si>
-  <si>
-    <t>9112200662082</t>
+    <t>7501260791082</t>
+  </si>
+  <si>
+    <t>8404220950089</t>
+  </si>
+  <si>
+    <t>5104015677086</t>
+  </si>
+  <si>
+    <t>4103020192082</t>
+  </si>
+  <si>
+    <t>7412016002081</t>
+  </si>
+  <si>
+    <t>8808170858086</t>
+  </si>
+  <si>
+    <t>4006100104085</t>
+  </si>
+  <si>
+    <t>9006281357085</t>
+  </si>
+  <si>
+    <t>8912011287081</t>
+  </si>
+  <si>
+    <t>5801126093083</t>
+  </si>
+  <si>
+    <t>5801156178085</t>
+  </si>
+  <si>
+    <t>3403210307081</t>
+  </si>
+  <si>
+    <t>7804051105086</t>
+  </si>
+  <si>
+    <t>8907191223088</t>
+  </si>
+  <si>
+    <t>7703151079086</t>
+  </si>
+  <si>
+    <t>5306126002084</t>
+  </si>
+  <si>
+    <t>8808190777084</t>
+  </si>
+  <si>
+    <t>7802027561085</t>
+  </si>
+  <si>
+    <t>7709130450082</t>
+  </si>
+  <si>
+    <t>7603150828089</t>
+  </si>
+  <si>
+    <t>7303021392080</t>
+  </si>
+  <si>
+    <t>6012251961081</t>
+  </si>
+  <si>
+    <t>7510045545085</t>
+  </si>
+  <si>
+    <t>7602121061085</t>
+  </si>
+  <si>
+    <t>5803240186082</t>
+  </si>
+  <si>
+    <t>8007205857086</t>
+  </si>
+  <si>
+    <t>5311190155031</t>
+  </si>
+  <si>
+    <t>5605120997086</t>
+  </si>
+  <si>
+    <t>6812031016084</t>
+  </si>
+  <si>
+    <t>8310231484085</t>
+  </si>
+  <si>
+    <t>7112210709081</t>
+  </si>
+  <si>
+    <t>9404091219084</t>
+  </si>
+  <si>
+    <t>9401011724086</t>
+  </si>
+  <si>
+    <t>7208031032081</t>
+  </si>
+  <si>
+    <t>9212070714086</t>
+  </si>
+  <si>
+    <t>5410270843085</t>
+  </si>
+  <si>
+    <t>6301060996085</t>
+  </si>
+  <si>
+    <t>7502036198081</t>
+  </si>
+  <si>
+    <t>9111281494084</t>
+  </si>
+  <si>
+    <t>7907031092082</t>
+  </si>
+  <si>
+    <t>8507240928081</t>
+  </si>
+  <si>
+    <t>8410051084088</t>
+  </si>
+  <si>
+    <t>7701230739084</t>
+  </si>
+  <si>
+    <t>8903031818088</t>
+  </si>
+  <si>
+    <t>7806090782080</t>
+  </si>
+  <si>
+    <t>8212250746081</t>
+  </si>
+  <si>
+    <t>6011290278085</t>
+  </si>
+  <si>
+    <t>5502155339088</t>
+  </si>
+  <si>
+    <t>9210271192086</t>
+  </si>
+  <si>
+    <t>4802065708088</t>
+  </si>
+  <si>
+    <t>8212151310086</t>
+  </si>
+  <si>
+    <t>4010030490085</t>
+  </si>
+  <si>
+    <t>8105230443086</t>
+  </si>
+  <si>
+    <t>6301220214080</t>
+  </si>
+  <si>
+    <t>7801010839086</t>
+  </si>
+  <si>
+    <t>8801140860084</t>
+  </si>
+  <si>
+    <t>4602175530087</t>
+  </si>
+  <si>
+    <t>8204041731084</t>
+  </si>
+  <si>
+    <t>5606220310089</t>
+  </si>
+  <si>
+    <t>7601121122087</t>
+  </si>
+  <si>
+    <t>9001126400083</t>
+  </si>
+  <si>
+    <t>7706016267085</t>
+  </si>
+  <si>
+    <t>5011090156086</t>
+  </si>
+  <si>
+    <t>7801190694087</t>
+  </si>
+  <si>
+    <t>5711030968082</t>
+  </si>
+  <si>
+    <t>8304030368086</t>
+  </si>
+  <si>
+    <t>7303080561088</t>
+  </si>
+  <si>
+    <t>7901180859086</t>
+  </si>
+  <si>
+    <t>4812256023080</t>
+  </si>
+  <si>
+    <t>4809180226086</t>
+  </si>
+  <si>
+    <t>5004210803083</t>
+  </si>
+  <si>
+    <t>7509201231084</t>
+  </si>
+  <si>
+    <t>5705275955085</t>
+  </si>
+  <si>
+    <t>8302010462085</t>
+  </si>
+  <si>
+    <t>5408055068084</t>
+  </si>
+  <si>
+    <t>8209041295089</t>
+  </si>
+  <si>
+    <t>7202010850084</t>
+  </si>
+  <si>
+    <t>6203130298080</t>
+  </si>
+  <si>
+    <t>4011060090084</t>
+  </si>
+  <si>
+    <t>8207150912080</t>
+  </si>
+  <si>
+    <t>7507080887083</t>
+  </si>
+  <si>
+    <t>7003126550083</t>
+  </si>
+  <si>
+    <t>3204080111086</t>
+  </si>
+  <si>
+    <t>7502121191082</t>
+  </si>
+  <si>
+    <t>7401018632086</t>
+  </si>
+  <si>
+    <t>5606016054081</t>
+  </si>
+  <si>
+    <t>8912221375080</t>
+  </si>
+  <si>
+    <t>6312020950088</t>
+  </si>
+  <si>
+    <t>8410220745080</t>
+  </si>
+  <si>
+    <t>6810275530083</t>
+  </si>
+  <si>
+    <t>7401180855085</t>
+  </si>
+  <si>
+    <t>9304041489086</t>
+  </si>
+  <si>
+    <t>9110290844081</t>
+  </si>
+  <si>
+    <t>6903160982087</t>
+  </si>
+  <si>
+    <t>8603261122082</t>
+  </si>
+  <si>
+    <t>8403301012082</t>
+  </si>
+  <si>
+    <t>8112151193088</t>
+  </si>
+  <si>
+    <t>9606041156089</t>
+  </si>
+  <si>
+    <t>5402210050087</t>
+  </si>
+  <si>
+    <t>8505211175088</t>
+  </si>
+  <si>
+    <t>5705240207083</t>
+  </si>
+  <si>
+    <t>5202210241086</t>
+  </si>
+  <si>
+    <t>8703011045086</t>
+  </si>
+  <si>
+    <t>8411291006089</t>
+  </si>
+  <si>
+    <t>8901091042086</t>
+  </si>
+  <si>
+    <t>8003010812085</t>
+  </si>
+  <si>
+    <t>7001014796081</t>
+  </si>
+  <si>
+    <t>7603241139082</t>
+  </si>
+  <si>
+    <t>6401260808088</t>
+  </si>
+  <si>
+    <t>5303220036084</t>
+  </si>
+  <si>
+    <t>7811290661084</t>
+  </si>
+  <si>
+    <t>5501100749086</t>
+  </si>
+  <si>
+    <t>5605175776088</t>
+  </si>
+  <si>
+    <t>8505051645083</t>
+  </si>
+  <si>
+    <t>8105280970087</t>
+  </si>
+  <si>
+    <t>4705080125081</t>
+  </si>
+  <si>
+    <t>7701150979082</t>
+  </si>
+  <si>
+    <t>5002060301083</t>
+  </si>
+  <si>
+    <t>8001200456085</t>
+  </si>
+  <si>
+    <t>4006260527083</t>
+  </si>
+  <si>
+    <t>6212150322084</t>
+  </si>
+  <si>
+    <t>6205120688089</t>
+  </si>
+  <si>
+    <t>3205270102082</t>
+  </si>
+  <si>
+    <t>8910171063086</t>
+  </si>
+  <si>
+    <t>5406100259088</t>
+  </si>
+  <si>
+    <t>6301156107084</t>
+  </si>
+  <si>
+    <t>8809290886080</t>
+  </si>
+  <si>
+    <t>8810111165084</t>
+  </si>
+  <si>
+    <t>7007041021088</t>
+  </si>
+  <si>
+    <t>7012051238085</t>
+  </si>
+  <si>
+    <t>8009170873080</t>
+  </si>
+  <si>
+    <t>4905170155085</t>
+  </si>
+  <si>
+    <t>8210281153087</t>
+  </si>
+  <si>
+    <t>5603136001084</t>
+  </si>
+  <si>
+    <t>4201100694082</t>
+  </si>
+  <si>
+    <t>7302121326089</t>
+  </si>
+  <si>
+    <t>8810041154083</t>
+  </si>
+  <si>
+    <t>8809056215086</t>
+  </si>
+  <si>
+    <t>7203070942084</t>
+  </si>
+  <si>
+    <t>8109295869086</t>
+  </si>
+  <si>
+    <t>7207300009085</t>
+  </si>
+  <si>
+    <t>5501012942084</t>
+  </si>
+  <si>
+    <t>5307071058089</t>
+  </si>
+  <si>
+    <t>6205280945089</t>
+  </si>
+  <si>
+    <t>9406260657085</t>
+  </si>
+  <si>
+    <t>7003161010084</t>
+  </si>
+  <si>
+    <t>7311130800083</t>
+  </si>
+  <si>
+    <t>6609151039080</t>
+  </si>
+  <si>
+    <t>6606151106083</t>
+  </si>
+  <si>
+    <t>7912251250089</t>
+  </si>
+  <si>
+    <t>7103130895084</t>
+  </si>
+  <si>
+    <t>9202281481088</t>
+  </si>
+  <si>
+    <t>7706230978087</t>
+  </si>
+  <si>
+    <t>5201260289086</t>
+  </si>
+  <si>
+    <t>7410201224080</t>
+  </si>
+  <si>
+    <t>8811110812080</t>
+  </si>
+  <si>
+    <t>3907035130080</t>
+  </si>
+  <si>
+    <t>8311171020087</t>
+  </si>
+  <si>
+    <t>6806081045084</t>
+  </si>
+  <si>
+    <t>7711250931081</t>
+  </si>
+  <si>
+    <t>8712041041080</t>
+  </si>
+  <si>
+    <t>6902101301084</t>
+  </si>
+  <si>
+    <t>8806101667089</t>
+  </si>
+  <si>
+    <t>5712125489083</t>
+  </si>
+  <si>
+    <t>4606120399084</t>
+  </si>
+  <si>
+    <t>7707161074086</t>
+  </si>
+  <si>
+    <t>4302020705089</t>
+  </si>
+  <si>
+    <t>7006141131086</t>
+  </si>
+  <si>
+    <t>7502281547081</t>
+  </si>
+  <si>
+    <t>5612270852087</t>
+  </si>
+  <si>
+    <t>9012041362084</t>
+  </si>
+  <si>
+    <t>5012250248085</t>
+  </si>
+  <si>
+    <t>5702110256084</t>
+  </si>
+  <si>
+    <t>7412101284081</t>
+  </si>
+  <si>
+    <t>6709260820089</t>
+  </si>
+  <si>
+    <t>8307070707089</t>
+  </si>
+  <si>
+    <t>8412210940085</t>
+  </si>
+  <si>
+    <t>8810091183081</t>
+  </si>
+  <si>
+    <t>7906120462081</t>
+  </si>
+  <si>
+    <t>9611081094083</t>
+  </si>
+  <si>
+    <t>6412050989087</t>
+  </si>
+  <si>
+    <t>6705220703084</t>
+  </si>
+  <si>
+    <t>8303033021080</t>
+  </si>
+  <si>
+    <t>4809165565086</t>
+  </si>
+  <si>
+    <t>4511260111085</t>
+  </si>
+  <si>
+    <t>8512151086085</t>
+  </si>
+  <si>
+    <t>9309181132081</t>
+  </si>
+  <si>
+    <t>8506011319082</t>
+  </si>
+  <si>
+    <t>8001101439081</t>
+  </si>
+  <si>
+    <t>6506071163083</t>
+  </si>
+  <si>
+    <t>5507140349084</t>
+  </si>
+  <si>
+    <t>8809271555084</t>
+  </si>
+  <si>
+    <t>8906011198082</t>
+  </si>
+  <si>
+    <t>7908251017080</t>
+  </si>
+  <si>
+    <t>8406046714086</t>
+  </si>
+  <si>
+    <t>4608030552083</t>
+  </si>
+  <si>
+    <t>7512241487088</t>
+  </si>
+  <si>
+    <t>9012150674089</t>
+  </si>
+  <si>
+    <t>5706060285084</t>
+  </si>
+  <si>
+    <t>8803141070085</t>
+  </si>
+  <si>
+    <t>5707130202083</t>
+  </si>
+  <si>
+    <t>8907201132089</t>
+  </si>
+  <si>
+    <t>8709201041082</t>
+  </si>
+  <si>
+    <t>9305171142080</t>
+  </si>
+  <si>
+    <t>9105101405080</t>
+  </si>
+  <si>
+    <t>4002021216082</t>
+  </si>
+  <si>
+    <t>8205221187088</t>
+  </si>
+  <si>
+    <t>6203190316087</t>
+  </si>
+  <si>
+    <t>5911155223087</t>
+  </si>
+  <si>
+    <t>7803175504083</t>
+  </si>
+  <si>
+    <t>8312231425084</t>
+  </si>
+  <si>
+    <t>9404246254085</t>
+  </si>
+  <si>
+    <t>8506251546089</t>
+  </si>
+  <si>
+    <t>9006141326080</t>
+  </si>
+  <si>
+    <t>5206066812080</t>
+  </si>
+  <si>
+    <t>3201075320086</t>
+  </si>
+  <si>
+    <t>8105055868089</t>
+  </si>
+  <si>
+    <t>8604091159088</t>
+  </si>
+  <si>
+    <t>3601120377082</t>
+  </si>
+  <si>
+    <t>6605251069084</t>
+  </si>
+  <si>
+    <t>6406170774080</t>
+  </si>
+  <si>
+    <t>8010160959087</t>
+  </si>
+  <si>
+    <t>5409145813083</t>
+  </si>
+  <si>
+    <t>8809091965083</t>
+  </si>
+  <si>
+    <t>8009160919083</t>
+  </si>
+  <si>
+    <t>8601040685080</t>
+  </si>
+  <si>
+    <t>5702021335084</t>
+  </si>
+  <si>
+    <t>9312190926089</t>
+  </si>
+  <si>
+    <t>7106041196088</t>
+  </si>
+  <si>
+    <t>5304260805081</t>
+  </si>
+  <si>
+    <t>7609091762089</t>
+  </si>
+  <si>
+    <t>7506085869088</t>
+  </si>
+  <si>
+    <t>6804101388089</t>
+  </si>
+  <si>
+    <t>9310091064083</t>
+  </si>
+  <si>
+    <t>6206061638083</t>
+  </si>
+  <si>
+    <t>5609120267086</t>
+  </si>
+  <si>
+    <t>4903015714083</t>
+  </si>
+  <si>
+    <t>4309115479082</t>
+  </si>
+  <si>
+    <t>7801100507080</t>
+  </si>
+  <si>
+    <t>7303032125081</t>
+  </si>
+  <si>
+    <t>4804040400088</t>
+  </si>
+  <si>
+    <t>8803260818082</t>
+  </si>
+  <si>
+    <t>8808221170085</t>
+  </si>
+  <si>
+    <t>4501220227089</t>
+  </si>
+  <si>
+    <t>7702120963081</t>
+  </si>
+  <si>
+    <t>5210101512085</t>
+  </si>
+  <si>
+    <t>5908210913082</t>
+  </si>
+  <si>
+    <t>8403241258084</t>
+  </si>
+  <si>
+    <t>6001100808080</t>
+  </si>
+  <si>
+    <t>8702051212085</t>
+  </si>
+  <si>
+    <t>3703010292080</t>
+  </si>
+  <si>
+    <t>8407285499082</t>
+  </si>
+  <si>
+    <t>7301012649088</t>
+  </si>
+  <si>
+    <t>6410102422081</t>
+  </si>
+  <si>
+    <t>5905060397085</t>
+  </si>
+  <si>
+    <t>7605090586081</t>
+  </si>
+  <si>
+    <t>6811041061080</t>
+  </si>
+  <si>
+    <t>8910102040088</t>
+  </si>
+  <si>
+    <t>8608261024089</t>
+  </si>
+  <si>
+    <t>7801060691080</t>
+  </si>
+  <si>
+    <t>9206101386088</t>
+  </si>
+  <si>
+    <t>8111111440084</t>
+  </si>
+  <si>
+    <t>5708280233084</t>
+  </si>
+  <si>
+    <t>4903290032086</t>
+  </si>
+  <si>
+    <t>8507171177088</t>
+  </si>
+  <si>
+    <t>8611140689080</t>
+  </si>
+  <si>
+    <t>7601170445082</t>
+  </si>
+  <si>
+    <t>4607290139086</t>
+  </si>
+  <si>
+    <t>8804280885085</t>
+  </si>
+  <si>
+    <t>9011090871086</t>
+  </si>
+  <si>
+    <t>7204021142089</t>
+  </si>
+  <si>
+    <t>9105061157085</t>
+  </si>
+  <si>
+    <t>9206085973083</t>
+  </si>
+  <si>
+    <t>7507080980086</t>
+  </si>
+  <si>
+    <t>8403071338089</t>
+  </si>
+  <si>
+    <t>6511150976082</t>
+  </si>
+  <si>
+    <t>7904130531086</t>
+  </si>
+  <si>
+    <t>7507100906087</t>
+  </si>
+  <si>
+    <t>4605300208081</t>
+  </si>
+  <si>
+    <t>9012210881088</t>
+  </si>
+  <si>
+    <t>8802141137084</t>
+  </si>
+  <si>
+    <t>6306061514084</t>
+  </si>
+  <si>
+    <t>5709040219082</t>
+  </si>
+  <si>
+    <t>6802230625082</t>
+  </si>
+  <si>
+    <t>3211115404089</t>
+  </si>
+  <si>
+    <t>5203230891082</t>
+  </si>
+  <si>
+    <t>6512180880088</t>
+  </si>
+  <si>
+    <t>7011201144086</t>
+  </si>
+  <si>
+    <t>4802240180088</t>
+  </si>
+  <si>
+    <t>5006061231082</t>
+  </si>
+  <si>
+    <t>4809080706088</t>
+  </si>
+  <si>
+    <t>8008060834087</t>
+  </si>
+  <si>
+    <t>7803080547086</t>
+  </si>
+  <si>
+    <t>4502280280083</t>
+  </si>
+  <si>
+    <t>6401018017081</t>
+  </si>
+  <si>
+    <t>8303180831083</t>
+  </si>
+  <si>
+    <t>5502280305087</t>
+  </si>
+  <si>
+    <t>3703155253087</t>
+  </si>
+  <si>
+    <t>8402101404085</t>
+  </si>
+  <si>
+    <t>7505052803088</t>
+  </si>
+  <si>
+    <t>5210110882081</t>
+  </si>
+  <si>
+    <t>9612190962087</t>
+  </si>
+  <si>
+    <t>5803270984083</t>
+  </si>
+  <si>
+    <t>380210170084</t>
+  </si>
+  <si>
+    <t>6112205875088</t>
+  </si>
+  <si>
+    <t>6301110180086</t>
+  </si>
+  <si>
+    <t>7910260782084</t>
+  </si>
+  <si>
+    <t>3510160361080</t>
+  </si>
+  <si>
+    <t>9105311077083</t>
+  </si>
+  <si>
+    <t>7106010100087</t>
+  </si>
+  <si>
+    <t>5203020115080</t>
+  </si>
+  <si>
+    <t>6204165086085</t>
+  </si>
+  <si>
+    <t>7907130988081</t>
+  </si>
+  <si>
+    <t>7909091278080</t>
+  </si>
+  <si>
+    <t>4001019539083</t>
+  </si>
+  <si>
+    <t>7001151306082</t>
+  </si>
+  <si>
+    <t>7703286127081</t>
+  </si>
+  <si>
+    <t>4208110113086</t>
+  </si>
+  <si>
+    <t>7912041067082</t>
+  </si>
+  <si>
+    <t>7809030692088</t>
+  </si>
+  <si>
+    <t>8812301279089</t>
+  </si>
+  <si>
+    <t>5312155855087</t>
+  </si>
+  <si>
+    <t>7904031294081</t>
+  </si>
+  <si>
+    <t>7503101218085</t>
+  </si>
+  <si>
+    <t>6007160152087</t>
+  </si>
+  <si>
+    <t>5602120243082</t>
+  </si>
+  <si>
+    <t>9310060465089</t>
+  </si>
+  <si>
+    <t>5209045818087</t>
+  </si>
+  <si>
+    <t>4602095576087</t>
+  </si>
+  <si>
+    <t>6808111036083</t>
+  </si>
+  <si>
+    <t>7305151073083</t>
+  </si>
+  <si>
+    <t>3401020710080</t>
+  </si>
+  <si>
+    <t>5701230242081</t>
+  </si>
+  <si>
+    <t>8702061156082</t>
+  </si>
+  <si>
+    <t>6702281117080</t>
+  </si>
+  <si>
+    <t>6808215087081</t>
+  </si>
+  <si>
+    <t>8908040866085</t>
+  </si>
+  <si>
+    <t>6306260343087</t>
+  </si>
+  <si>
+    <t>7802281452086</t>
+  </si>
+  <si>
+    <t>8106151324081</t>
+  </si>
+  <si>
+    <t>8510151436086</t>
+  </si>
+  <si>
+    <t>8506226032082</t>
+  </si>
+  <si>
+    <t>4501012363085</t>
+  </si>
+  <si>
+    <t>6303041344088</t>
+  </si>
+  <si>
+    <t>8808021295082</t>
+  </si>
+  <si>
+    <t>8212131077086</t>
+  </si>
+  <si>
+    <t>7501170625081</t>
+  </si>
+  <si>
+    <t>5206030360083</t>
+  </si>
+  <si>
+    <t>6011010932086</t>
+  </si>
+  <si>
+    <t>9109271508087</t>
+  </si>
+  <si>
+    <t>5307150151086</t>
+  </si>
+  <si>
+    <t>4104030160085</t>
+  </si>
+  <si>
+    <t>5601270861081</t>
+  </si>
+  <si>
+    <t>7710150506084</t>
+  </si>
+  <si>
+    <t>8301100691082</t>
+  </si>
+  <si>
+    <t>5503140255082</t>
+  </si>
+  <si>
+    <t>5403225786087</t>
+  </si>
+  <si>
+    <t>7602026883088</t>
+  </si>
+  <si>
+    <t>7306062449081</t>
+  </si>
+  <si>
+    <t>5209250850080</t>
+  </si>
+  <si>
+    <t>8806301235083</t>
+  </si>
+  <si>
+    <t>7812251631082</t>
+  </si>
+  <si>
+    <t>8709045974084</t>
+  </si>
+  <si>
+    <t>6506081016081</t>
+  </si>
+  <si>
+    <t>8903032024082</t>
+  </si>
+  <si>
+    <t>9703101140085</t>
+  </si>
+  <si>
+    <t>6006130213086</t>
+  </si>
+  <si>
+    <t>9511101256086</t>
+  </si>
+  <si>
+    <t>5907080905087</t>
+  </si>
+  <si>
+    <t>9606301300088</t>
+  </si>
+  <si>
+    <t>8410265485089</t>
+  </si>
+  <si>
+    <t>9111071004085</t>
+  </si>
+  <si>
+    <t>9412015899089</t>
+  </si>
+  <si>
+    <t>5812210162080</t>
+  </si>
+  <si>
+    <t>5406205986080</t>
+  </si>
+  <si>
+    <t>8203130795083</t>
+  </si>
+  <si>
+    <t>5304075145087</t>
+  </si>
+  <si>
+    <t>5405060322084</t>
+  </si>
+  <si>
+    <t>8712251559086</t>
+  </si>
+  <si>
+    <t>7001210892080</t>
+  </si>
+  <si>
+    <t>9406261427082</t>
+  </si>
+  <si>
+    <t>5803020159085</t>
+  </si>
+  <si>
+    <t>7611300961080</t>
+  </si>
+  <si>
+    <t>8208281664087</t>
+  </si>
+  <si>
+    <t>4710101169084</t>
+  </si>
+  <si>
+    <t>8306011373084</t>
+  </si>
+  <si>
+    <t>8807231102088</t>
+  </si>
+  <si>
+    <t>8312041024085</t>
+  </si>
+  <si>
+    <t>8709031131087</t>
+  </si>
+  <si>
+    <t>5604030268084</t>
+  </si>
+  <si>
+    <t>5607300584080</t>
+  </si>
+  <si>
+    <t>61060460590084</t>
+  </si>
+  <si>
+    <t>8101080883083</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +1332,16 @@
       <sz val="14"/>
       <name val="宋体"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,7 +1351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,6 +1367,21 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -164,23 +1432,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,117 +1843,7976 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F398"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="J158" sqref="J158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
+        <v>5029</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2137649283</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="12">
+        <v>295</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="4">
+        <v>3369</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2134948175</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>350</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75">
+      <c r="A4" s="4">
+        <v>2806</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2121602029</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12">
+        <v>295</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75">
+      <c r="A5" s="4">
+        <v>3279</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2086206058</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>350</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75">
+      <c r="A6" s="4">
+        <v>3651</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2134946960</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="12">
+        <v>550</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75">
+      <c r="A7" s="4">
+        <v>5754</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2086766865</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" s="12">
+        <v>237</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75">
+      <c r="A8" s="4">
+        <v>5983</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2450414268</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>550</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75">
+      <c r="A9" s="4">
+        <v>5984</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2145579960</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E9" s="12">
+        <v>295</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75">
+      <c r="A10" s="4">
+        <v>5986</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2044217818</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E10" s="12">
+        <v>295</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75">
+      <c r="A11" s="4">
+        <v>5987</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2082791159</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" s="12">
+        <v>350</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75">
+      <c r="A12" s="4">
+        <v>5988</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2133730851</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E12" s="12">
+        <v>295</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75">
+      <c r="A13" s="4">
+        <v>5989</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2086201319</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>550</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75">
+      <c r="A14" s="4">
+        <v>5990</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2146151545</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" s="12">
+        <v>453</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75">
+      <c r="A15" s="4">
+        <v>5991</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2074406922</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E15" s="12">
+        <v>295</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75">
+      <c r="A16" s="4">
+        <v>5992</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2137951757</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" s="12">
+        <v>295</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75">
+      <c r="A17" s="4">
+        <v>5993</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2080330953</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E17" s="12">
+        <v>550</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75">
+      <c r="A18" s="4">
+        <v>2531</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2126494373</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E18" s="12">
+        <v>350</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75">
+      <c r="A19" s="4">
+        <v>3421</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2070430296</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E19" s="12">
+        <v>350</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75">
+      <c r="A20" s="4">
+        <v>5769</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2101215463</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>453</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75">
+      <c r="A21" s="4">
+        <v>2666</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2145581232</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E21" s="12">
+        <v>295</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75">
+      <c r="A22" s="4">
+        <v>5247</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2100985648</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>350</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75">
+      <c r="A23" s="4">
+        <v>3251</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2144839744</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>350</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75">
+      <c r="A24" s="4">
+        <v>4461</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2110393027</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E24" s="12">
+        <v>550</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75">
+      <c r="A25" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2121140544</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E25" s="12">
+        <v>453</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75">
+      <c r="A26" s="4">
+        <v>5971</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2137365020</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E26" s="12">
+        <v>295</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75">
+      <c r="A27" s="4">
+        <v>5972</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2120500267</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E27" s="12">
+        <v>295</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75">
+      <c r="A28" s="4">
+        <v>5974</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2126379096</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>237</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75">
+      <c r="A29" s="4">
+        <v>5978</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2071408566</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>453</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75">
+      <c r="A30" s="4">
+        <v>5980</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2144837578</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>453</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75">
+      <c r="A31" s="4">
+        <v>5981</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2474399384</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E31" s="12">
+        <v>237</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75">
+      <c r="A32" s="4">
+        <v>5586</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2108958168</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>350</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="4">
+        <v>4975</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2128145662</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E33" s="12">
+        <v>295</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="4">
+        <v>2664</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2146146867</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E34" s="12">
+        <v>237</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="4">
+        <v>5432</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2120836806</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
+        <v>237</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="4">
+        <v>5960</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2126493669</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E36" s="12">
+        <v>350</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75">
+      <c r="A37" s="4">
+        <v>2126</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2144329780</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <v>652</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="A38" s="4">
+        <v>2636</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2117155879</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12">
+        <v>237</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="A39" s="4">
+        <v>5768</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2125760233</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E39" s="12">
+        <v>453</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="A40" s="4">
+        <v>5336</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2086130730</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12">
+        <v>550</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75">
+      <c r="A41" s="4">
+        <v>2462</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2086767766</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E41" s="12">
+        <v>237</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75">
+      <c r="A42" s="4">
+        <v>2718</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2100984481</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E42" s="12">
+        <v>237</v>
+      </c>
+      <c r="F42" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.75">
+      <c r="A43" s="4">
+        <v>3752</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2086767129</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E43" s="12">
+        <v>550</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.75">
+      <c r="A44" s="4">
+        <v>2343</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2100986757</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12">
+        <v>350</v>
+      </c>
+      <c r="F44" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.75">
+      <c r="A45" s="4">
+        <v>4579</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2126377337</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12">
+        <v>295</v>
+      </c>
+      <c r="F45" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.75">
+      <c r="A46" s="4">
+        <v>3558</v>
+      </c>
+      <c r="B46" s="4">
+        <v>2117181934</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E46" s="12">
+        <v>295</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75">
+      <c r="A47" s="4">
+        <v>2939</v>
+      </c>
+      <c r="B47" s="4">
+        <v>2122475700</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E47" s="12">
+        <v>295</v>
+      </c>
+      <c r="F47" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18.75">
+      <c r="A48" s="4">
+        <v>5298</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2133607125</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E48" s="12">
+        <v>295</v>
+      </c>
+      <c r="F48" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75">
+      <c r="A49" s="4">
+        <v>5146</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2144326571</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E49" s="12">
+        <v>490</v>
+      </c>
+      <c r="F49" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75">
+      <c r="A50" s="4">
+        <v>4554</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2118751216</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E50" s="12">
+        <v>295</v>
+      </c>
+      <c r="F50" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75">
+      <c r="A51" s="4">
+        <v>5540</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2108958680</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E51" s="12">
+        <v>237</v>
+      </c>
+      <c r="F51" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18.75">
+      <c r="A52" s="4">
+        <v>3377</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2132720865</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E52" s="12">
+        <v>400</v>
+      </c>
+      <c r="F52" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.75">
+      <c r="A53" s="4">
+        <v>3185</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2108959141</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <v>652</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75">
+      <c r="A54" s="4">
+        <v>5584</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2144838648</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
+        <v>453</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18.75">
+      <c r="A55" s="4">
+        <v>3872</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2120500163</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12">
+        <v>453</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18.75">
+      <c r="A56" s="4">
+        <v>5484</v>
+      </c>
+      <c r="B56" s="4">
+        <v>2143572009</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12">
+        <v>237</v>
+      </c>
+      <c r="F56" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18.75">
+      <c r="A57" s="4">
+        <v>5293</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2146151591</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="12">
+        <v>350</v>
+      </c>
+      <c r="F57" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18.75">
+      <c r="A58" s="4">
+        <v>3847</v>
+      </c>
+      <c r="B58" s="4">
+        <v>2074408209</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E58" s="12">
+        <v>350</v>
+      </c>
+      <c r="F58" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18.75">
+      <c r="A59" s="4">
+        <v>4247</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2082822197</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E59" s="12">
+        <v>550</v>
+      </c>
+      <c r="F59" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18.75">
+      <c r="A60" s="4">
+        <v>3336</v>
+      </c>
+      <c r="B60" s="4">
+        <v>2119538945</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12">
+        <v>550</v>
+      </c>
+      <c r="F60" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18.75">
+      <c r="A61" s="4">
+        <v>4786</v>
+      </c>
+      <c r="B61" s="4">
+        <v>2109774199</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12">
+        <v>350</v>
+      </c>
+      <c r="F61" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18.75">
+      <c r="A62" s="4">
+        <v>5006</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2126495911</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E62" s="12">
+        <v>453</v>
+      </c>
+      <c r="F62" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18.75">
+      <c r="A63" s="4">
+        <v>4128</v>
+      </c>
+      <c r="B63" s="4">
+        <v>2144836870</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E63" s="12">
+        <v>350</v>
+      </c>
+      <c r="F63" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75">
+      <c r="A64" s="4">
+        <v>2560</v>
+      </c>
+      <c r="B64" s="4">
+        <v>2087686710</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E64" s="12">
+        <v>652</v>
+      </c>
+      <c r="F64" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18.75">
+      <c r="A65" s="4">
+        <v>5346</v>
+      </c>
+      <c r="B65" s="4">
+        <v>2132721279</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="12">
+        <v>295</v>
+      </c>
+      <c r="F65" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18.75">
+      <c r="A66" s="4">
+        <v>3009</v>
+      </c>
+      <c r="B66" s="4">
+        <v>2126495973</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="12">
+        <v>295</v>
+      </c>
+      <c r="F66" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="18.75">
+      <c r="A67" s="4">
+        <v>3134</v>
+      </c>
+      <c r="B67" s="4">
+        <v>2119441402</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="12">
+        <v>453</v>
+      </c>
+      <c r="F67" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="18.75">
+      <c r="A68" s="4">
+        <v>2117</v>
+      </c>
+      <c r="B68" s="4">
+        <v>2072059160</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="12">
+        <v>550</v>
+      </c>
+      <c r="F68" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18.75">
+      <c r="A69" s="4">
+        <v>5164</v>
+      </c>
+      <c r="B69" s="4">
+        <v>2096151534</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E69" s="12">
+        <v>706</v>
+      </c>
+      <c r="F69" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18.75">
+      <c r="A70" s="4">
+        <v>4634</v>
+      </c>
+      <c r="B70" s="4">
+        <v>2452658936</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E70" s="12">
+        <v>453</v>
+      </c>
+      <c r="F70" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18.75">
+      <c r="A71" s="4">
+        <v>4826</v>
+      </c>
+      <c r="B71" s="4">
+        <v>2072575898</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="12">
+        <v>453</v>
+      </c>
+      <c r="F71" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18.75">
+      <c r="A72" s="4">
+        <v>2517</v>
+      </c>
+      <c r="B72" s="4">
+        <v>2480235776</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="12">
+        <v>453</v>
+      </c>
+      <c r="F72" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18.75">
+      <c r="A73" s="4">
+        <v>2217</v>
+      </c>
+      <c r="B73" s="4">
+        <v>2014683469</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E73" s="12">
+        <v>295</v>
+      </c>
+      <c r="F73" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18.75">
+      <c r="A74" s="4">
+        <v>2964</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2133322537</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E74" s="12">
+        <v>453</v>
+      </c>
+      <c r="F74" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18.75">
+      <c r="A75" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B75" s="4">
+        <v>2064914067</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E75" s="12">
+        <v>400</v>
+      </c>
+      <c r="F75" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18.75">
+      <c r="A76" s="4">
+        <v>3519</v>
+      </c>
+      <c r="B76" s="4">
+        <v>2119541319</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E76" s="12">
+        <v>295</v>
+      </c>
+      <c r="F76" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18.75">
+      <c r="A77" s="4">
+        <v>4473</v>
+      </c>
+      <c r="B77" s="4">
+        <v>2073784305</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="12">
+        <v>237</v>
+      </c>
+      <c r="F77" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18.75">
+      <c r="A78" s="4">
+        <v>3133</v>
+      </c>
+      <c r="B78" s="4">
+        <v>2132719072</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="12">
+        <v>350</v>
+      </c>
+      <c r="F78" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18.75">
+      <c r="A79" s="4">
+        <v>3999</v>
+      </c>
+      <c r="B79" s="4">
+        <v>2110992089</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="12">
+        <v>295</v>
+      </c>
+      <c r="F79" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18.75">
+      <c r="A80" s="4">
+        <v>4472</v>
+      </c>
+      <c r="B80" s="4">
+        <v>2132131919</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="12">
+        <v>550</v>
+      </c>
+      <c r="F80" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18.75">
+      <c r="A81" s="4">
+        <v>4166</v>
+      </c>
+      <c r="B81" s="4">
+        <v>2144327863</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="12">
+        <v>550</v>
+      </c>
+      <c r="F81" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18.75">
+      <c r="A82" s="4">
+        <v>2196</v>
+      </c>
+      <c r="B82" s="4">
+        <v>2108573269</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E82" s="12">
+        <v>295</v>
+      </c>
+      <c r="F82" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18.75">
+      <c r="A83" s="4">
+        <v>3944</v>
+      </c>
+      <c r="B83" s="4">
+        <v>2069558455</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="12">
+        <v>590</v>
+      </c>
+      <c r="F83" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18.75">
+      <c r="A84" s="4">
+        <v>4512</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2102055648</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E84" s="12">
+        <v>350</v>
+      </c>
+      <c r="F84" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18.75">
+      <c r="A85" s="4">
+        <v>3550</v>
+      </c>
+      <c r="B85" s="4">
+        <v>2121990505</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E85" s="12">
+        <v>652</v>
+      </c>
+      <c r="F85" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18.75">
+      <c r="A86" s="4">
+        <v>2607</v>
+      </c>
+      <c r="B86" s="4">
+        <v>2143569287</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E86" s="12">
+        <v>550</v>
+      </c>
+      <c r="F86" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18.75">
+      <c r="A87" s="4">
+        <v>4730</v>
+      </c>
+      <c r="B87" s="4">
+        <v>2125241318</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E87" s="12">
+        <v>350</v>
+      </c>
+      <c r="F87" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18.75">
+      <c r="A88" s="4">
+        <v>4442</v>
+      </c>
+      <c r="B88" s="4">
+        <v>2108959062</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E88" s="12">
+        <v>186</v>
+      </c>
+      <c r="F88" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="18.75">
+      <c r="A89" s="4">
+        <v>4690</v>
+      </c>
+      <c r="B89" s="4">
+        <v>2127805711</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="12">
+        <v>295</v>
+      </c>
+      <c r="F89" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="18.75">
+      <c r="A90" s="4">
+        <v>2050</v>
+      </c>
+      <c r="B90" s="4">
+        <v>2023582043</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="12">
+        <v>237</v>
+      </c>
+      <c r="F90" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18.75">
+      <c r="A91" s="4">
+        <v>5417</v>
+      </c>
+      <c r="B91" s="4">
+        <v>2117437770</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E91" s="12">
+        <v>453</v>
+      </c>
+      <c r="F91" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18.75">
+      <c r="A92" s="4">
+        <v>5005</v>
+      </c>
+      <c r="B92" s="4">
+        <v>2144330394</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="12">
+        <v>350</v>
+      </c>
+      <c r="F92" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18.75">
+      <c r="A93" s="4">
+        <v>5690</v>
+      </c>
+      <c r="B93" s="4">
+        <v>2108957722</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E93" s="12">
+        <v>400</v>
+      </c>
+      <c r="F93" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18.75">
+      <c r="A94" s="4">
+        <v>5414</v>
+      </c>
+      <c r="B94" s="4">
+        <v>2108776212</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E94" s="12">
+        <v>350</v>
+      </c>
+      <c r="F94" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18.75">
+      <c r="A95" s="4">
+        <v>3879</v>
+      </c>
+      <c r="B95" s="4">
+        <v>2126492051</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="12">
+        <v>186</v>
+      </c>
+      <c r="F95" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="18.75">
+      <c r="A96" s="4">
+        <v>3636</v>
+      </c>
+      <c r="B96" s="4">
+        <v>2033137771</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12">
+        <v>295</v>
+      </c>
+      <c r="F96" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="18.75">
+      <c r="A97" s="4">
+        <v>5427</v>
+      </c>
+      <c r="B97" s="4">
+        <v>2071409532</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="12">
+        <v>295</v>
+      </c>
+      <c r="F97" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18.75">
+      <c r="A98" s="4">
+        <v>5828</v>
+      </c>
+      <c r="B98" s="4">
+        <v>2125240563</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E98" s="12">
+        <v>126</v>
+      </c>
+      <c r="F98" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="18.75">
+      <c r="A99" s="4">
+        <v>6065</v>
+      </c>
+      <c r="B99" s="4">
+        <v>2082445928</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="12">
+        <v>295</v>
+      </c>
+      <c r="F99" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18.75">
+      <c r="A100" s="4">
+        <v>4679</v>
+      </c>
+      <c r="B100" s="4">
+        <v>2108574117</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E100" s="12">
+        <v>453</v>
+      </c>
+      <c r="F100" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="18.75">
+      <c r="A101" s="4">
+        <v>4088</v>
+      </c>
+      <c r="B101" s="4">
+        <v>2126497267</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E101" s="12">
+        <v>550</v>
+      </c>
+      <c r="F101" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="18.75">
+      <c r="A102" s="4">
+        <v>2723</v>
+      </c>
+      <c r="B102" s="4">
+        <v>2125240896</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12">
+        <v>295</v>
+      </c>
+      <c r="F102" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="18.75">
+      <c r="A103" s="4">
+        <v>2587</v>
+      </c>
+      <c r="B103" s="4">
+        <v>2086766367</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E103" s="12">
+        <v>550</v>
+      </c>
+      <c r="F103" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="18.75">
+      <c r="A104" s="4">
+        <v>4494</v>
+      </c>
+      <c r="B104" s="4">
+        <v>2118948830</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E104" s="12">
+        <v>295</v>
+      </c>
+      <c r="F104" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18.75">
+      <c r="A105" s="4">
+        <v>5830</v>
+      </c>
+      <c r="B105" s="4">
+        <v>2086200636</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="12">
+        <v>237</v>
+      </c>
+      <c r="F105" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="18.75">
+      <c r="A106" s="4">
+        <v>2799</v>
+      </c>
+      <c r="B106" s="4">
+        <v>2064911901</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E106" s="12">
+        <v>186</v>
+      </c>
+      <c r="F106" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="18.75">
+      <c r="A107" s="4">
+        <v>2915</v>
+      </c>
+      <c r="B107" s="4">
+        <v>2133324160</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="12">
+        <v>186</v>
+      </c>
+      <c r="F107" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="18.75">
+      <c r="A108" s="4">
+        <v>2266</v>
+      </c>
+      <c r="B108" s="4">
+        <v>2480882036</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="12">
+        <v>126</v>
+      </c>
+      <c r="F108" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="18.75">
+      <c r="A109" s="4">
+        <v>2914</v>
+      </c>
+      <c r="B109" s="4">
+        <v>2121990544</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E109" s="12">
+        <v>550</v>
+      </c>
+      <c r="F109" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="18.75">
+      <c r="A110" s="4">
+        <v>5142</v>
+      </c>
+      <c r="B110" s="4">
+        <v>2144841193</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="12">
+        <v>815</v>
+      </c>
+      <c r="F110" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="18.75">
+      <c r="A111" s="4">
+        <v>5842</v>
+      </c>
+      <c r="B111" s="4">
+        <v>2133732224</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E111" s="12">
+        <v>295</v>
+      </c>
+      <c r="F111" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="18.75">
+      <c r="A112" s="4">
+        <v>4091</v>
+      </c>
+      <c r="B112" s="4">
+        <v>2125760835</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E112" s="12">
+        <v>295</v>
+      </c>
+      <c r="F112" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="18.75">
+      <c r="A113" s="4">
+        <v>3988</v>
+      </c>
+      <c r="B113" s="4">
+        <v>2102812020</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E113" s="12">
+        <v>237</v>
+      </c>
+      <c r="F113" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="18.75">
+      <c r="A114" s="4">
+        <v>2640</v>
+      </c>
+      <c r="B114" s="4">
+        <v>2073783788</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E114" s="12">
+        <v>295</v>
+      </c>
+      <c r="F114" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="18.75">
+      <c r="A115" s="4">
+        <v>2224</v>
+      </c>
+      <c r="B115" s="4">
+        <v>2087362900</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="12">
+        <v>706</v>
+      </c>
+      <c r="F115" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="18.75">
+      <c r="A116" s="4">
+        <v>4793</v>
+      </c>
+      <c r="B116" s="4">
+        <v>2088033651</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="12">
+        <v>295</v>
+      </c>
+      <c r="F116" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="18.75">
+      <c r="A117" s="4">
+        <v>2764</v>
+      </c>
+      <c r="B117" s="4">
+        <v>2069558403</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E117" s="12">
+        <v>550</v>
+      </c>
+      <c r="F117" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="18.75">
+      <c r="A118" s="4">
+        <v>3776</v>
+      </c>
+      <c r="B118" s="4">
+        <v>2125761407</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E118" s="12">
+        <v>295</v>
+      </c>
+      <c r="F118" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="18.75">
+      <c r="A119" s="4">
+        <v>2652</v>
+      </c>
+      <c r="B119" s="4">
+        <v>2119441427</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="12">
+        <v>400</v>
+      </c>
+      <c r="F119" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="18.75">
+      <c r="A120" s="4">
+        <v>5273</v>
+      </c>
+      <c r="B120" s="4">
+        <v>2074405046</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E120" s="12">
+        <v>237</v>
+      </c>
+      <c r="F120" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="18.75">
+      <c r="A121" s="4">
+        <v>3198</v>
+      </c>
+      <c r="B121" s="4">
+        <v>2144841147</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E121" s="12">
+        <v>295</v>
+      </c>
+      <c r="F121" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="18.75">
+      <c r="A122" s="4">
+        <v>5891</v>
+      </c>
+      <c r="B122" s="4">
+        <v>2095698161</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="12">
+        <v>350</v>
+      </c>
+      <c r="F122" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="18.75">
+      <c r="A123" s="4">
+        <v>5535</v>
+      </c>
+      <c r="B123" s="4">
+        <v>2102812599</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="12">
+        <v>295</v>
+      </c>
+      <c r="F123" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="18.75">
+      <c r="A124" s="4">
+        <v>4988</v>
+      </c>
+      <c r="B124" s="4">
+        <v>2086766453</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="12">
+        <v>350</v>
+      </c>
+      <c r="F124" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="18.75">
+      <c r="A125" s="4">
+        <v>5378</v>
+      </c>
+      <c r="B125" s="4">
+        <v>2137069659</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E125" s="12">
+        <v>350</v>
+      </c>
+      <c r="F125" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="18.75">
+      <c r="A126" s="4">
+        <v>3340</v>
+      </c>
+      <c r="B126" s="4">
+        <v>2041203687</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E126" s="12">
+        <v>295</v>
+      </c>
+      <c r="F126" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="18.75">
+      <c r="A127" s="4">
+        <v>5641</v>
+      </c>
+      <c r="B127" s="4">
+        <v>2144326976</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E127" s="12">
+        <v>350</v>
+      </c>
+      <c r="F127" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="18.75">
+      <c r="A128" s="4">
+        <v>3316</v>
+      </c>
+      <c r="B128" s="4">
+        <v>2454322833</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E128" s="12">
+        <v>350</v>
+      </c>
+      <c r="F128" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="18.75">
+      <c r="A129" s="4">
+        <v>4318</v>
+      </c>
+      <c r="B129" s="4">
+        <v>2096771207</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="12">
+        <v>350</v>
+      </c>
+      <c r="F129" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="18.75">
+      <c r="A130" s="4">
+        <v>5931</v>
+      </c>
+      <c r="B130" s="4">
+        <v>2095698409</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E130" s="12">
+        <v>550</v>
+      </c>
+      <c r="F130" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="18.75">
+      <c r="A131" s="4">
+        <v>4118</v>
+      </c>
+      <c r="B131" s="4">
+        <v>2102812038</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="12">
+        <v>350</v>
+      </c>
+      <c r="F131" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="18.75">
+      <c r="A132" s="4">
+        <v>5187</v>
+      </c>
+      <c r="B132" s="4">
+        <v>2087087443</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="12">
+        <v>550</v>
+      </c>
+      <c r="F132" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="18.75">
+      <c r="A133" s="4">
         <v>5966</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B133" s="4">
         <v>2102055522</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C133" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D133" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E133" s="12">
+        <v>237</v>
+      </c>
+      <c r="F133" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="18.75">
+      <c r="A134" s="4">
+        <v>2700</v>
+      </c>
+      <c r="B134" s="4">
+        <v>2064913051</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="12">
         <v>400</v>
       </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="1">
+      <c r="F134" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="18.75">
+      <c r="A135" s="4">
+        <v>2125</v>
+      </c>
+      <c r="B135" s="4">
+        <v>2126492574</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="12">
+        <v>453</v>
+      </c>
+      <c r="F135" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="18.75">
+      <c r="A136" s="4">
+        <v>3224</v>
+      </c>
+      <c r="B136" s="4">
+        <v>2143568709</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E136" s="12">
+        <v>295</v>
+      </c>
+      <c r="F136" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="18.75">
+      <c r="A137" s="4">
+        <v>3768</v>
+      </c>
+      <c r="B137" s="4">
+        <v>2133732897</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" s="12">
+        <v>453</v>
+      </c>
+      <c r="F137" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="18.75">
+      <c r="A138" s="4">
+        <v>5872</v>
+      </c>
+      <c r="B138" s="4">
+        <v>2087363188</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="12">
+        <v>350</v>
+      </c>
+      <c r="F138" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="18.75">
+      <c r="A139" s="4">
+        <v>6074</v>
+      </c>
+      <c r="B139" s="4">
+        <v>2387803807</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E139" s="12">
+        <v>237</v>
+      </c>
+      <c r="F139" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="18.75">
+      <c r="A140" s="4">
+        <v>6073</v>
+      </c>
+      <c r="B140" s="4">
+        <v>2470216076</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E140" s="12">
+        <v>350</v>
+      </c>
+      <c r="F140" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="18.75">
+      <c r="A141" s="4">
+        <v>6072</v>
+      </c>
+      <c r="B141" s="4">
+        <v>2088075244</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E141" s="12">
+        <v>237</v>
+      </c>
+      <c r="F141" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="18.75">
+      <c r="A142" s="4">
+        <v>6070</v>
+      </c>
+      <c r="B142" s="4">
+        <v>2091298092</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E142" s="12">
+        <v>590</v>
+      </c>
+      <c r="F142" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="18.75">
+      <c r="A143" s="4">
+        <v>6069</v>
+      </c>
+      <c r="B143" s="4">
+        <v>2078708890</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" s="12">
+        <v>186</v>
+      </c>
+      <c r="F143" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="18.75">
+      <c r="A144" s="4">
+        <v>6067</v>
+      </c>
+      <c r="B144" s="4">
+        <v>2126496290</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" s="12">
+        <v>550</v>
+      </c>
+      <c r="F144" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="18.75">
+      <c r="A145" s="5">
+        <v>6068</v>
+      </c>
+      <c r="B145" s="4">
+        <v>2079157755</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" s="12">
+        <v>350</v>
+      </c>
+      <c r="F145" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="18.75">
+      <c r="A146" s="4">
+        <v>6066</v>
+      </c>
+      <c r="B146" s="4">
+        <v>2087363496</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" s="12">
+        <v>550</v>
+      </c>
+      <c r="F146" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="18.75">
+      <c r="A147" s="4">
+        <v>6064</v>
+      </c>
+      <c r="B147" s="4">
+        <v>2064912766</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E147" s="12">
+        <v>453</v>
+      </c>
+      <c r="F147" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="18.75">
+      <c r="A148" s="4">
+        <v>6063</v>
+      </c>
+      <c r="B148" s="4">
+        <v>2132721745</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" s="12">
+        <v>550</v>
+      </c>
+      <c r="F148" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="18.75">
+      <c r="A149" s="4">
+        <v>6062</v>
+      </c>
+      <c r="B149" s="4">
+        <v>2073784731</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" s="12">
+        <v>400</v>
+      </c>
+      <c r="F149" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="18.75">
+      <c r="A150" s="4">
+        <v>6060</v>
+      </c>
+      <c r="B150" s="4">
+        <v>2064918504</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E150" s="12">
+        <v>706</v>
+      </c>
+      <c r="F150" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="18.75">
+      <c r="A151" s="4">
+        <v>6059</v>
+      </c>
+      <c r="B151" s="4">
+        <v>2064917251</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" s="12">
+        <v>350</v>
+      </c>
+      <c r="F151" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="18.75">
+      <c r="A152" s="4">
+        <v>6058</v>
+      </c>
+      <c r="B152" s="4">
+        <v>2074397531</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E152" s="12">
+        <v>490</v>
+      </c>
+      <c r="F152" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="18.75">
+      <c r="A153" s="4">
+        <v>6056</v>
+      </c>
+      <c r="B153" s="4">
+        <v>2144329727</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" s="12">
+        <v>186</v>
+      </c>
+      <c r="F153" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="18.75">
+      <c r="A154" s="4">
+        <v>6057</v>
+      </c>
+      <c r="B154" s="4">
+        <v>2123061843</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E154" s="12">
+        <v>295</v>
+      </c>
+      <c r="F154" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="18.75">
+      <c r="A155" s="4">
+        <v>6055</v>
+      </c>
+      <c r="B155" s="4">
+        <v>2490453642</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E155" s="12">
+        <v>453</v>
+      </c>
+      <c r="F155" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="18.75">
+      <c r="A156" s="6">
+        <v>6053</v>
+      </c>
+      <c r="B156" s="6">
+        <v>2463353352</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E156" s="13">
+        <v>650</v>
+      </c>
+      <c r="F156" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="18.75">
+      <c r="A157" s="4">
+        <v>6054</v>
+      </c>
+      <c r="B157" s="4">
+        <v>2074395313</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E157" s="12">
+        <v>295</v>
+      </c>
+      <c r="F157" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="18.75">
+      <c r="A158" s="6">
+        <v>6052</v>
+      </c>
+      <c r="B158" s="6">
+        <v>2114044274</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E158" s="13">
+        <v>295</v>
+      </c>
+      <c r="F158" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="18.75">
+      <c r="A159" s="4">
+        <v>6045</v>
+      </c>
+      <c r="B159" s="4">
+        <v>2388660645</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E159" s="12">
+        <v>453</v>
+      </c>
+      <c r="F159" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="18.75">
+      <c r="A160" s="4">
+        <v>6051</v>
+      </c>
+      <c r="B160" s="4">
+        <v>2071582724</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E160" s="12">
+        <v>453</v>
+      </c>
+      <c r="F160" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="18.75">
+      <c r="A161" s="4">
+        <v>6050</v>
+      </c>
+      <c r="B161" s="4">
+        <v>2108578743</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" s="12">
+        <v>453</v>
+      </c>
+      <c r="F161" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="18.75">
+      <c r="A162" s="4">
+        <v>6049</v>
+      </c>
+      <c r="B162" s="4">
+        <v>2453470546</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162" s="12">
+        <v>453</v>
+      </c>
+      <c r="F162" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="18.75">
+      <c r="A163" s="4">
+        <v>6044</v>
+      </c>
+      <c r="B163" s="4">
+        <v>2058275355</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E163" s="12">
+        <v>350</v>
+      </c>
+      <c r="F163" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="18.75">
+      <c r="A164" s="5">
+        <v>6043</v>
+      </c>
+      <c r="B164" s="4">
+        <v>2071578775</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" s="12">
+        <v>400</v>
+      </c>
+      <c r="F164" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="18.75">
+      <c r="A165" s="5">
+        <v>6042</v>
+      </c>
+      <c r="B165" s="4">
+        <v>2102058943</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" s="12">
+        <v>453</v>
+      </c>
+      <c r="F165" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="18.75">
+      <c r="A166" s="5">
+        <v>6041</v>
+      </c>
+      <c r="B166" s="4">
+        <v>2144836974</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E166" s="12">
+        <v>295</v>
+      </c>
+      <c r="F166" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="18.75">
+      <c r="A167" s="4">
+        <v>6040</v>
+      </c>
+      <c r="B167" s="4">
+        <v>2147267271</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E167" s="12">
+        <v>350</v>
+      </c>
+      <c r="F167" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="18.75">
+      <c r="A168" s="4">
+        <v>6037</v>
+      </c>
+      <c r="B168" s="4">
+        <v>2118749288</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E168" s="12">
+        <v>237</v>
+      </c>
+      <c r="F168" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="18.75">
+      <c r="A169" s="4">
+        <v>6035</v>
+      </c>
+      <c r="B169" s="4">
+        <v>2126493913</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E169" s="12">
+        <v>550</v>
+      </c>
+      <c r="F169" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="18.75">
+      <c r="A170" s="4">
+        <v>6034</v>
+      </c>
+      <c r="B170" s="4">
+        <v>2079159626</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E170" s="12">
+        <v>237</v>
+      </c>
+      <c r="F170" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="18.75">
+      <c r="A171" s="4">
+        <v>6032</v>
+      </c>
+      <c r="B171" s="4">
+        <v>2453475024</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E171" s="12">
+        <v>350</v>
+      </c>
+      <c r="F171" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="18.75">
+      <c r="A172" s="4">
+        <v>2128</v>
+      </c>
+      <c r="B172" s="4">
+        <v>2064913463</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E172" s="12">
+        <v>550</v>
+      </c>
+      <c r="F172" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="18.75">
+      <c r="A173" s="4">
+        <v>4863</v>
+      </c>
+      <c r="B173" s="4">
+        <v>2125759794</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E173" s="12">
+        <v>453</v>
+      </c>
+      <c r="F173" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="18.75">
+      <c r="A174" s="4">
+        <v>4530</v>
+      </c>
+      <c r="B174" s="4">
+        <v>2125759501</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" s="12">
+        <v>453</v>
+      </c>
+      <c r="F174" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="18.75">
+      <c r="A175" s="4">
+        <v>5833</v>
+      </c>
+      <c r="B175" s="4">
+        <v>2132721942</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E175" s="12">
+        <v>453</v>
+      </c>
+      <c r="F175" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="18.75">
+      <c r="A176" s="4">
+        <v>4608</v>
+      </c>
+      <c r="B176" s="4">
+        <v>2132135420</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E176" s="12">
+        <v>453</v>
+      </c>
+      <c r="F176" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="18.75">
+      <c r="A177" s="4">
+        <v>4322</v>
+      </c>
+      <c r="B177" s="4">
+        <v>2117967681</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E177" s="12">
+        <v>550</v>
+      </c>
+      <c r="F177" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="18.75">
+      <c r="A178" s="4">
+        <v>4208</v>
+      </c>
+      <c r="B178" s="4">
+        <v>2091850934</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E178" s="12">
+        <v>350</v>
+      </c>
+      <c r="F178" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="18.75">
+      <c r="A179" s="4">
+        <v>5750</v>
+      </c>
+      <c r="B179" s="4">
+        <v>2144328403</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E179" s="12">
+        <v>550</v>
+      </c>
+      <c r="F179" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="18.75">
+      <c r="A180" s="4">
+        <v>5547</v>
+      </c>
+      <c r="B180" s="4">
+        <v>2086201745</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E180" s="12">
+        <v>453</v>
+      </c>
+      <c r="F180" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="18.75">
+      <c r="A181" s="4">
+        <v>2721</v>
+      </c>
+      <c r="B181" s="4">
+        <v>2120416379</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E181" s="12">
+        <v>490</v>
+      </c>
+      <c r="F181" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="18.75">
+      <c r="A182" s="4">
+        <v>5994</v>
+      </c>
+      <c r="B182" s="4">
+        <v>2126492599</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E182" s="12">
+        <v>237</v>
+      </c>
+      <c r="F182" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="18.75">
+      <c r="A183" s="4">
+        <v>5995</v>
+      </c>
+      <c r="B183" s="4">
+        <v>2074402328</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183" s="12">
+        <v>453</v>
+      </c>
+      <c r="F183" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="18.75">
+      <c r="A184" s="4">
+        <v>5996</v>
+      </c>
+      <c r="B184" s="4">
+        <v>2081629523</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" s="12">
+        <v>400</v>
+      </c>
+      <c r="F184" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="18.75">
+      <c r="A185" s="4">
+        <v>5997</v>
+      </c>
+      <c r="B185" s="4">
+        <v>2078376018</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" s="12">
+        <v>295</v>
+      </c>
+      <c r="F185" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="18.75">
+      <c r="A186" s="4">
+        <v>5998</v>
+      </c>
+      <c r="B186" s="4">
+        <v>2093713896</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E186" s="12">
+        <v>550</v>
+      </c>
+      <c r="F186" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="18.75">
+      <c r="A187" s="4">
+        <v>5999</v>
+      </c>
+      <c r="B187" s="4">
+        <v>2087379110</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E187" s="12">
+        <v>550</v>
+      </c>
+      <c r="F187" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="18.75">
+      <c r="A188" s="4">
+        <v>6000</v>
+      </c>
+      <c r="B188" s="4">
+        <v>2104514571</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E188" s="12">
+        <v>295</v>
+      </c>
+      <c r="F188" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="18.75">
+      <c r="A189" s="4">
+        <v>6001</v>
+      </c>
+      <c r="B189" s="4">
+        <v>2069562161</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E189" s="12">
+        <v>295</v>
+      </c>
+      <c r="F189" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="18.75">
+      <c r="A190" s="4">
+        <v>6002</v>
+      </c>
+      <c r="B190" s="4">
+        <v>2071578689</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" s="12">
+        <v>295</v>
+      </c>
+      <c r="F190" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="18.75">
+      <c r="A191" s="4">
+        <v>6003</v>
+      </c>
+      <c r="B191" s="4">
+        <v>2121988892</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E191" s="12">
+        <v>453</v>
+      </c>
+      <c r="F191" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="18.75">
+      <c r="A192" s="4">
+        <v>6004</v>
+      </c>
+      <c r="B192" s="4">
+        <v>2145581605</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" s="12">
+        <v>550</v>
+      </c>
+      <c r="F192" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="18.75">
+      <c r="A193" s="4">
+        <v>6005</v>
+      </c>
+      <c r="B193" s="4">
+        <v>2143571999</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E193" s="12">
+        <v>237</v>
+      </c>
+      <c r="F193" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="18.75">
+      <c r="A194" s="4">
+        <v>6006</v>
+      </c>
+      <c r="B194" s="4">
+        <v>2143568479</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E194" s="12">
+        <v>295</v>
+      </c>
+      <c r="F194" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="18.75">
+      <c r="A195" s="4">
+        <v>4973</v>
+      </c>
+      <c r="B195" s="4">
+        <v>2132720342</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E195" s="12">
+        <v>237</v>
+      </c>
+      <c r="F195" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="18.75">
+      <c r="A196" s="4">
+        <v>3886</v>
+      </c>
+      <c r="B196" s="4">
+        <v>2091851892</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E196" s="12">
+        <v>350</v>
+      </c>
+      <c r="F196" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="18.75">
+      <c r="A197" s="4">
+        <v>5864</v>
+      </c>
+      <c r="B197" s="4">
+        <v>2145581185</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E197" s="12">
+        <v>295</v>
+      </c>
+      <c r="F197" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="18.75">
+      <c r="A198" s="4">
+        <v>5357</v>
+      </c>
+      <c r="B198" s="4">
+        <v>2144839718</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E198" s="12">
+        <v>400</v>
+      </c>
+      <c r="F198" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="18.75">
+      <c r="A199" s="4">
+        <v>2136</v>
+      </c>
+      <c r="B199" s="4">
+        <v>2121901240</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E199" s="12">
+        <v>350</v>
+      </c>
+      <c r="F199" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="18.75">
+      <c r="A200" s="4">
+        <v>3950</v>
+      </c>
+      <c r="B200" s="4">
+        <v>2144329537</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E200" s="12">
+        <v>350</v>
+      </c>
+      <c r="F200" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="18.75">
+      <c r="A201" s="4">
+        <v>4680</v>
+      </c>
+      <c r="B201" s="4">
+        <v>2116072040</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" s="12">
+        <v>550</v>
+      </c>
+      <c r="F201" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="18.75">
+      <c r="A202" s="4">
+        <v>2157</v>
+      </c>
+      <c r="B202" s="4">
+        <v>2144837009</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E202" s="12">
+        <v>295</v>
+      </c>
+      <c r="F202" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="18.75">
+      <c r="A203" s="4">
+        <v>4109</v>
+      </c>
+      <c r="B203" s="4">
+        <v>2121140138</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E203" s="12">
+        <v>453</v>
+      </c>
+      <c r="F203" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="18.75">
+      <c r="A204" s="4">
+        <v>3226</v>
+      </c>
+      <c r="B204" s="4">
+        <v>2120835671</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E204" s="12">
+        <v>237</v>
+      </c>
+      <c r="F204" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="18.75">
+      <c r="A205" s="4">
+        <v>5679</v>
+      </c>
+      <c r="B205" s="4">
+        <v>2126377322</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E205" s="12">
+        <v>453</v>
+      </c>
+      <c r="F205" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="18.75">
+      <c r="A206" s="4">
+        <v>4999</v>
+      </c>
+      <c r="B206" s="4">
+        <v>2074403856</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E206" s="12">
+        <v>295</v>
+      </c>
+      <c r="F206" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="18.75">
+      <c r="A207" s="4">
+        <v>5602</v>
+      </c>
+      <c r="B207" s="4">
+        <v>2119379874</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E207" s="12">
+        <v>400</v>
+      </c>
+      <c r="F207" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="18.75">
+      <c r="A208" s="4">
+        <v>5789</v>
+      </c>
+      <c r="B208" s="4">
+        <v>2069559401</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E208" s="12">
+        <v>550</v>
+      </c>
+      <c r="F208" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="18.75">
+      <c r="A209" s="4">
+        <v>5578</v>
+      </c>
+      <c r="B209" s="4">
+        <v>2095260322</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E209" s="12">
+        <v>350</v>
+      </c>
+      <c r="F209" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="18.75">
+      <c r="A210" s="4">
+        <v>4712</v>
+      </c>
+      <c r="B210" s="4">
+        <v>2070429722</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E210" s="12">
+        <v>400</v>
+      </c>
+      <c r="F210" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="18.75">
+      <c r="A211" s="4">
+        <v>3694</v>
+      </c>
+      <c r="B211" s="4">
+        <v>2460804039</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E211" s="12">
+        <v>350</v>
+      </c>
+      <c r="F211" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="18.75">
+      <c r="A212" s="4">
+        <v>2934</v>
+      </c>
+      <c r="B212" s="4">
+        <v>2109466029</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E212" s="12">
+        <v>350</v>
+      </c>
+      <c r="F212" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="18.75">
+      <c r="A213" s="4">
+        <v>3788</v>
+      </c>
+      <c r="B213" s="4">
+        <v>2078708170</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E213" s="12">
+        <v>400</v>
+      </c>
+      <c r="F213" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="18.75">
+      <c r="A214" s="4">
         <v>5967</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B214" s="4">
         <v>2143567116</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C214" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D214" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E214" s="12">
         <v>295</v>
       </c>
-      <c r="F3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75">
-      <c r="A4" s="1">
-        <v>5968</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2064918203</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="F214" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="18.75">
+      <c r="A215" s="4">
+        <v>5824</v>
+      </c>
+      <c r="B215" s="4">
+        <v>2143569681</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E215" s="12">
         <v>295</v>
       </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75">
-      <c r="A5" s="1">
-        <v>2068</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2132135380</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F215" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="18.75">
+      <c r="A216" s="4">
+        <v>3679</v>
+      </c>
+      <c r="B216" s="4">
+        <v>2121601987</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E216" s="12">
+        <v>550</v>
+      </c>
+      <c r="F216" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="18.75">
+      <c r="A217" s="4">
+        <v>3902</v>
+      </c>
+      <c r="B217" s="4">
+        <v>2135069636</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E217" s="12">
+        <v>295</v>
+      </c>
+      <c r="F217" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="18.75">
+      <c r="A218" s="4">
+        <v>4796</v>
+      </c>
+      <c r="B218" s="4">
+        <v>2108773493</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D218" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E218" s="12">
         <v>453</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F218" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="18.75">
+      <c r="A219" s="4">
+        <v>5208</v>
+      </c>
+      <c r="B219" s="4">
+        <v>2125760756</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E219" s="12">
+        <v>453</v>
+      </c>
+      <c r="F219" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="18.75">
+      <c r="A220" s="4">
+        <v>2246</v>
+      </c>
+      <c r="B220" s="4">
+        <v>2373498455</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E220" s="12">
+        <v>815</v>
+      </c>
+      <c r="F220" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="18.75">
+      <c r="A221" s="4">
+        <v>3019</v>
+      </c>
+      <c r="B221" s="4">
+        <v>2109466133</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E221" s="12">
+        <v>295</v>
+      </c>
+      <c r="F221" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="18.75">
+      <c r="A222" s="4">
+        <v>5904</v>
+      </c>
+      <c r="B222" s="4">
+        <v>2095700333</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E222" s="12">
+        <v>550</v>
+      </c>
+      <c r="F222" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="18.75">
+      <c r="A223" s="4">
+        <v>2156</v>
+      </c>
+      <c r="B223" s="4">
+        <v>2133322963</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E223" s="12">
+        <v>295</v>
+      </c>
+      <c r="F223" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="18.75">
+      <c r="A224" s="4">
+        <v>3053</v>
+      </c>
+      <c r="B224" s="4">
+        <v>2102055379</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E224" s="12">
+        <v>350</v>
+      </c>
+      <c r="F224" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="18.75">
+      <c r="A225" s="4">
+        <v>2108</v>
+      </c>
+      <c r="B225" s="4">
+        <v>2120834903</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E225" s="12">
+        <v>295</v>
+      </c>
+      <c r="F225" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="18.75">
+      <c r="A226" s="4">
+        <v>3881</v>
+      </c>
+      <c r="B226" s="4">
+        <v>2123530569</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E226" s="12">
+        <v>453</v>
+      </c>
+      <c r="F226" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="18.75">
+      <c r="A227" s="4">
+        <v>6030</v>
+      </c>
+      <c r="B227" s="4">
+        <v>2101213300</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E227" s="12">
+        <v>350</v>
+      </c>
+      <c r="F227" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="18.75">
+      <c r="A228" s="4">
+        <v>6028</v>
+      </c>
+      <c r="B228" s="4">
+        <v>2132134938</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E228" s="12">
+        <v>490</v>
+      </c>
+      <c r="F228" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="18.75">
+      <c r="A229" s="4">
+        <v>6027</v>
+      </c>
+      <c r="B229" s="4">
+        <v>2096769863</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E229" s="12">
+        <v>295</v>
+      </c>
+      <c r="F229" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="18.75">
+      <c r="A230" s="4">
+        <v>6026</v>
+      </c>
+      <c r="B230" s="4">
+        <v>2091478114</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E230" s="12">
+        <v>295</v>
+      </c>
+      <c r="F230" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="18.75">
+      <c r="A231" s="4">
+        <v>6024</v>
+      </c>
+      <c r="B231" s="4">
+        <v>2144327057</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E231" s="12">
+        <v>295</v>
+      </c>
+      <c r="F231" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="18.75">
+      <c r="A232" s="4">
+        <v>6021</v>
+      </c>
+      <c r="B232" s="4">
+        <v>2059102733</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E232" s="12">
+        <v>490</v>
+      </c>
+      <c r="F232" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="18.75">
+      <c r="A233" s="4">
+        <v>6020</v>
+      </c>
+      <c r="B233" s="4">
+        <v>2120833381</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E233" s="12">
+        <v>186</v>
+      </c>
+      <c r="F233" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="18.75">
+      <c r="A234" s="4">
+        <v>6019</v>
+      </c>
+      <c r="B234" s="4">
+        <v>2133731842</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E234" s="12">
+        <v>237</v>
+      </c>
+      <c r="F234" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="18.75">
+      <c r="A235" s="4">
+        <v>6017</v>
+      </c>
+      <c r="B235" s="4">
+        <v>2069562573</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E235" s="12">
+        <v>453</v>
+      </c>
+      <c r="F235" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="18.75">
+      <c r="A236" s="4">
+        <v>6015</v>
+      </c>
+      <c r="B236" s="4">
+        <v>2070823907</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E236" s="12">
+        <v>550</v>
+      </c>
+      <c r="F236" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="18.75">
+      <c r="A237" s="4">
+        <v>6013</v>
+      </c>
+      <c r="B237" s="4">
+        <v>2071410461</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E237" s="12">
+        <v>237</v>
+      </c>
+      <c r="F237" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="18.75">
+      <c r="A238" s="4">
+        <v>6009</v>
+      </c>
+      <c r="B238" s="4">
+        <v>2093861301</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E238" s="12">
+        <v>295</v>
+      </c>
+      <c r="F238" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="18.75">
+      <c r="A239" s="4">
+        <v>6007</v>
+      </c>
+      <c r="B239" s="4">
+        <v>2049000554</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E239" s="12">
+        <v>550</v>
+      </c>
+      <c r="F239" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="18.75">
+      <c r="A240" s="4">
+        <v>2059</v>
+      </c>
+      <c r="B240" s="4">
+        <v>2096770033</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E240" s="12">
+        <v>453</v>
+      </c>
+      <c r="F240" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="18.75">
+      <c r="A241" s="4">
+        <v>3273</v>
+      </c>
+      <c r="B241" s="4">
+        <v>2072576122</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" s="12">
+        <v>652</v>
+      </c>
+      <c r="F241" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="18.75">
+      <c r="A242" s="4">
+        <v>2565</v>
+      </c>
+      <c r="B242" s="4">
+        <v>2113631154</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E242" s="12">
+        <v>550</v>
+      </c>
+      <c r="F242" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="18.75">
+      <c r="A243" s="4">
+        <v>2410</v>
+      </c>
+      <c r="B243" s="4">
+        <v>2095616655</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E243" s="12">
+        <v>295</v>
+      </c>
+      <c r="F243" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="18.75">
+      <c r="A244" s="4">
+        <v>3040</v>
+      </c>
+      <c r="B244" s="4">
+        <v>2144330466</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E244" s="12">
+        <v>295</v>
+      </c>
+      <c r="F244" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="18.75">
+      <c r="A245" s="4">
+        <v>5093</v>
+      </c>
+      <c r="B245" s="4">
+        <v>2460817693</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E245" s="12">
+        <v>295</v>
+      </c>
+      <c r="F245" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="18.75">
+      <c r="A246" s="4">
+        <v>3630</v>
+      </c>
+      <c r="B246" s="4">
+        <v>2453485430</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" s="12">
+        <v>453</v>
+      </c>
+      <c r="F246" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="18.75">
+      <c r="A247" s="4">
+        <v>2065</v>
+      </c>
+      <c r="B247" s="4">
+        <v>2020980588</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E247" s="12">
+        <v>295</v>
+      </c>
+      <c r="F247" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="18.75">
+      <c r="A248" s="4">
+        <v>5038</v>
+      </c>
+      <c r="B248" s="4">
+        <v>2087894517</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E248" s="12">
+        <v>350</v>
+      </c>
+      <c r="F248" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="18.75">
+      <c r="A249" s="4">
+        <v>4019</v>
+      </c>
+      <c r="B249" s="4">
+        <v>2052723460</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E249" s="12">
+        <v>350</v>
+      </c>
+      <c r="F249" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="18.75">
+      <c r="A250" s="4">
+        <v>5645</v>
+      </c>
+      <c r="B250" s="4">
+        <v>2078710868</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E250" s="12">
+        <v>350</v>
+      </c>
+      <c r="F250" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="18.75">
+      <c r="A251" s="4">
+        <v>3920</v>
+      </c>
+      <c r="B251" s="4">
+        <v>2144839155</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E251" s="12">
+        <v>350</v>
+      </c>
+      <c r="F251" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="18.75">
+      <c r="A252" s="4">
+        <v>3119</v>
+      </c>
+      <c r="B252" s="4">
+        <v>2086200872</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E252" s="12">
+        <v>400</v>
+      </c>
+      <c r="F252" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="18.75">
+      <c r="A253" s="4">
+        <v>3548</v>
+      </c>
+      <c r="B253" s="4">
+        <v>2064914533</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E253" s="12">
+        <v>295</v>
+      </c>
+      <c r="F253" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="18.75">
+      <c r="A254" s="4">
+        <v>2535</v>
+      </c>
+      <c r="B254" s="4">
+        <v>2455224818</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E254" s="12">
+        <v>350</v>
+      </c>
+      <c r="F254" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="18.75">
+      <c r="A255" s="4">
+        <v>5150</v>
+      </c>
+      <c r="B255" s="4">
+        <v>2109773589</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E255" s="12">
+        <v>652</v>
+      </c>
+      <c r="F255" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="18.75">
+      <c r="A256" s="4">
+        <v>5140</v>
+      </c>
+      <c r="B256" s="4">
+        <v>2135070716</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E256" s="12">
+        <v>350</v>
+      </c>
+      <c r="F256" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="18.75">
+      <c r="A257" s="4">
+        <v>2665</v>
+      </c>
+      <c r="B257" s="4">
+        <v>2095524354</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E257" s="12">
+        <v>350</v>
+      </c>
+      <c r="F257" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="18.75">
+      <c r="A258" s="4">
+        <v>2276</v>
+      </c>
+      <c r="B258" s="4">
+        <v>2133321861</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E258" s="12">
+        <v>295</v>
+      </c>
+      <c r="F258" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="18.75">
+      <c r="A259" s="4">
+        <v>3173</v>
+      </c>
+      <c r="B259" s="4">
+        <v>2132720699</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E259" s="12">
+        <v>350</v>
+      </c>
+      <c r="F259" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="18.75">
+      <c r="A260" s="4">
+        <v>4821</v>
+      </c>
+      <c r="B260" s="4">
+        <v>2027016617</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E260" s="12">
+        <v>350</v>
+      </c>
+      <c r="F260" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="18.75">
+      <c r="A261" s="4">
+        <v>2865</v>
+      </c>
+      <c r="B261" s="4">
+        <v>2095700713</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E261" s="12">
+        <v>350</v>
+      </c>
+      <c r="F261" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="18.75">
+      <c r="A262" s="4">
+        <v>3732</v>
+      </c>
+      <c r="B262" s="4">
+        <v>2109465281</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E262" s="12">
+        <v>350</v>
+      </c>
+      <c r="F262" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="18.75">
+      <c r="A263" s="4">
+        <v>5666</v>
+      </c>
+      <c r="B263" s="4">
+        <v>2144838426</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E263" s="12">
+        <v>453</v>
+      </c>
+      <c r="F263" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="18.75">
+      <c r="A264" s="4">
+        <v>5267</v>
+      </c>
+      <c r="B264" s="4">
+        <v>2107406016</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E264" s="12">
+        <v>295</v>
+      </c>
+      <c r="F264" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="18.75">
+      <c r="A265" s="4">
+        <v>2741</v>
+      </c>
+      <c r="B265" s="4">
+        <v>2132721136</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E265" s="12">
+        <v>550</v>
+      </c>
+      <c r="F265" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="18.75">
+      <c r="A266" s="4">
+        <v>5566</v>
+      </c>
+      <c r="B266" s="4">
+        <v>2074406155</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E266" s="12">
+        <v>295</v>
+      </c>
+      <c r="F266" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="18.75">
+      <c r="A267" s="4">
+        <v>5362</v>
+      </c>
+      <c r="B267" s="4">
+        <v>2081627502</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E267" s="12">
+        <v>550</v>
+      </c>
+      <c r="F267" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="18.75">
+      <c r="A268" s="4">
+        <v>2081</v>
+      </c>
+      <c r="B268" s="4">
+        <v>2118949846</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E268" s="12">
+        <v>550</v>
+      </c>
+      <c r="F268" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="18.75">
+      <c r="A269" s="4">
+        <v>2086</v>
+      </c>
+      <c r="B269" s="4">
+        <v>2109463285</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E269" s="12">
+        <v>550</v>
+      </c>
+      <c r="F269" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="18.75">
+      <c r="A270" s="4">
+        <v>5483</v>
+      </c>
+      <c r="B270" s="4">
+        <v>2120214273</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E270" s="12">
+        <v>295</v>
+      </c>
+      <c r="F270" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="18.75">
+      <c r="A271" s="4">
+        <v>5158</v>
+      </c>
+      <c r="B271" s="4">
+        <v>2082447677</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E271" s="12">
+        <v>453</v>
+      </c>
+      <c r="F271" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="18.75">
+      <c r="A272" s="4">
+        <v>4423</v>
+      </c>
+      <c r="B272" s="4">
+        <v>2454807288</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E272" s="12">
+        <v>550</v>
+      </c>
+      <c r="F272" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="18.75">
+      <c r="A273" s="4">
+        <v>2314</v>
+      </c>
+      <c r="B273" s="4">
+        <v>2069562788</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E273" s="12">
+        <v>350</v>
+      </c>
+      <c r="F273" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="18.75">
+      <c r="A274" s="4">
+        <v>5169</v>
+      </c>
+      <c r="B274" s="4">
+        <v>2143570145</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E274" s="12">
+        <v>295</v>
+      </c>
+      <c r="F274" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="18.75">
+      <c r="A275" s="4">
+        <v>5491</v>
+      </c>
+      <c r="B275" s="4">
+        <v>2095969845</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E275" s="12">
+        <v>550</v>
+      </c>
+      <c r="F275" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="18.75">
+      <c r="A276" s="4">
+        <v>3833</v>
+      </c>
+      <c r="B276" s="4">
+        <v>2143567109</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E276" s="12">
+        <v>350</v>
+      </c>
+      <c r="F276" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="18.75">
+      <c r="A277" s="4">
+        <v>6022</v>
+      </c>
+      <c r="B277" s="4">
+        <v>2064914802</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E277" s="12">
+        <v>652</v>
+      </c>
+      <c r="F277" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="18.75">
+      <c r="A278" s="4">
+        <v>5820</v>
+      </c>
+      <c r="B278" s="4">
+        <v>2041895444</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="12">
+        <v>237</v>
+      </c>
+      <c r="F278" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="18.75">
+      <c r="A279" s="4">
+        <v>5450</v>
+      </c>
+      <c r="B279" s="4">
+        <v>2101214164</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E279" s="12">
+        <v>237</v>
+      </c>
+      <c r="F279" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="18.75">
+      <c r="A280" s="4">
+        <v>6107</v>
+      </c>
+      <c r="B280" s="4">
+        <v>2064918844</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E280" s="12">
+        <v>400</v>
+      </c>
+      <c r="F280" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="18.75">
+      <c r="A281" s="4">
+        <v>6104</v>
+      </c>
+      <c r="B281" s="4">
+        <v>2133730719</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E281" s="12">
+        <v>295</v>
+      </c>
+      <c r="F281" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="18.75">
+      <c r="A282" s="7">
+        <v>2470</v>
+      </c>
+      <c r="B282" s="7">
+        <v>2088036172</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D282" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" s="14">
+        <v>350</v>
+      </c>
+      <c r="F282" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="18.75">
+      <c r="A283" s="7">
+        <v>6103</v>
+      </c>
+      <c r="B283" s="4">
+        <v>2133729678</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E283" s="12">
+        <v>295</v>
+      </c>
+      <c r="F283" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="18.75">
+      <c r="A284" s="7">
+        <v>6100</v>
+      </c>
+      <c r="B284" s="4">
+        <v>2086206033</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E284" s="12">
+        <v>453</v>
+      </c>
+      <c r="F284" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="18.75">
+      <c r="A285" s="7">
+        <v>6099</v>
+      </c>
+      <c r="B285" s="4">
+        <v>2090814614</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285" s="12">
+        <v>186</v>
+      </c>
+      <c r="F285" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="18.75">
+      <c r="A286" s="7">
+        <v>5063</v>
+      </c>
+      <c r="B286" s="4">
+        <v>2071577641</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E286" s="12">
+        <v>453</v>
+      </c>
+      <c r="F286" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="18.75">
+      <c r="A287" s="7">
+        <v>4154</v>
+      </c>
+      <c r="B287" s="4">
+        <v>2064913012</v>
+      </c>
+      <c r="C287" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E287" s="12">
+        <v>550</v>
+      </c>
+      <c r="F287" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="18.75">
+      <c r="A288" s="7">
+        <v>6098</v>
+      </c>
+      <c r="B288" s="4">
+        <v>2132720840</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E288" s="12">
+        <v>295</v>
+      </c>
+      <c r="F288" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="18.75">
+      <c r="A289" s="7">
+        <v>6096</v>
+      </c>
+      <c r="B289" s="4">
+        <v>2483476317</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E289" s="12">
+        <v>652</v>
+      </c>
+      <c r="F289" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="18.75">
+      <c r="A290" s="7">
+        <v>6097</v>
+      </c>
+      <c r="B290" s="4">
+        <v>2109773747</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E290" s="12">
+        <v>550</v>
+      </c>
+      <c r="F290" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="18.75">
+      <c r="A291" s="7">
+        <v>2808</v>
+      </c>
+      <c r="B291" s="4">
+        <v>2108774359</v>
+      </c>
+      <c r="C291" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E291" s="12">
+        <v>550</v>
+      </c>
+      <c r="F291" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="18.75">
+      <c r="A292" s="7">
+        <v>6095</v>
+      </c>
+      <c r="B292" s="4">
+        <v>2072571895</v>
+      </c>
+      <c r="C292" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E292" s="12">
+        <v>350</v>
+      </c>
+      <c r="F292" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="18.75">
+      <c r="A293" s="7">
+        <v>4709</v>
+      </c>
+      <c r="B293" s="4">
+        <v>2087686631</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E293" s="12">
+        <v>295</v>
+      </c>
+      <c r="F293" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="18.75">
+      <c r="A294" s="7">
+        <v>5251</v>
+      </c>
+      <c r="B294" s="4">
+        <v>2101301057</v>
+      </c>
+      <c r="C294" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E294" s="12">
+        <v>186</v>
+      </c>
+      <c r="F294" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="18.75">
+      <c r="A295" s="7">
+        <v>3317</v>
+      </c>
+      <c r="B295" s="4">
+        <v>2144328127</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E295" s="12">
+        <v>550</v>
+      </c>
+      <c r="F295" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="18.75">
+      <c r="A296" s="7">
+        <v>3092</v>
+      </c>
+      <c r="B296" s="4">
+        <v>2103080198</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E296" s="12">
+        <v>350</v>
+      </c>
+      <c r="F296" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="18.75">
+      <c r="A297" s="7">
+        <v>2584</v>
+      </c>
+      <c r="B297" s="4">
+        <v>2079242286</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E297" s="15">
+        <v>550</v>
+      </c>
+      <c r="F297" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="18.75">
+      <c r="A298" s="7">
+        <v>3538</v>
+      </c>
+      <c r="B298" s="4">
+        <v>2013834041</v>
+      </c>
+      <c r="C298" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E298" s="16">
+        <v>453</v>
+      </c>
+      <c r="F298" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="18.75">
+      <c r="A299" s="7">
+        <v>6093</v>
+      </c>
+      <c r="B299" s="4">
+        <v>2147266449</v>
+      </c>
+      <c r="C299" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E299" s="16">
+        <v>350</v>
+      </c>
+      <c r="F299" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="18.75">
+      <c r="A300" s="7">
+        <v>4964</v>
+      </c>
+      <c r="B300" s="4">
+        <v>2086133212</v>
+      </c>
+      <c r="C300" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E300" s="1">
+        <v>550</v>
+      </c>
+      <c r="F300" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="18.75">
+      <c r="A301" s="7">
+        <v>5232</v>
+      </c>
+      <c r="B301" s="4">
+        <v>2095927532</v>
+      </c>
+      <c r="C301" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E301" s="16">
+        <v>453</v>
+      </c>
+      <c r="F301" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="18.75">
+      <c r="A302" s="7">
+        <v>3696</v>
+      </c>
+      <c r="B302" s="4">
+        <v>2126495364</v>
+      </c>
+      <c r="C302" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E302" s="16">
+        <v>350</v>
+      </c>
+      <c r="F302" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="18.75">
+      <c r="A303" s="7">
+        <v>3936</v>
+      </c>
+      <c r="B303" s="4">
+        <v>2058416016</v>
+      </c>
+      <c r="C303" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E303" s="16">
+        <v>186</v>
+      </c>
+      <c r="F303" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="18.75">
+      <c r="A304" s="7">
+        <v>6092</v>
+      </c>
+      <c r="B304" s="4">
+        <v>2116069226</v>
+      </c>
+      <c r="C304" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E304" s="16">
+        <v>350</v>
+      </c>
+      <c r="F304" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="18.75">
+      <c r="A305" s="7">
+        <v>6091</v>
+      </c>
+      <c r="B305" s="4">
+        <v>2086452433</v>
+      </c>
+      <c r="C305" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E305" s="16">
+        <v>550</v>
+      </c>
+      <c r="F305" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="18.75">
+      <c r="A306" s="7">
+        <v>3468</v>
+      </c>
+      <c r="B306" s="4">
+        <v>2125760409</v>
+      </c>
+      <c r="C306" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E306" s="16">
+        <v>237</v>
+      </c>
+      <c r="F306" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="18.75">
+      <c r="A307" s="7">
+        <v>2293</v>
+      </c>
+      <c r="B307" s="4">
+        <v>2480434354</v>
+      </c>
+      <c r="C307" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E307" s="16">
+        <v>295</v>
+      </c>
+      <c r="F307" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="18.75">
+      <c r="A308" s="7">
+        <v>5404</v>
+      </c>
+      <c r="B308" s="4">
+        <v>2143567431</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E308" s="16">
+        <v>652</v>
+      </c>
+      <c r="F308" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="18.75">
+      <c r="A309" s="7">
+        <v>4751</v>
+      </c>
+      <c r="B309" s="4">
+        <v>2108954996</v>
+      </c>
+      <c r="C309" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E309" s="16">
+        <v>237</v>
+      </c>
+      <c r="F309" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="18.75">
+      <c r="A310" s="7">
+        <v>6089</v>
+      </c>
+      <c r="B310" s="4">
+        <v>2122723160</v>
+      </c>
+      <c r="C310" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E310" s="16">
+        <v>237</v>
+      </c>
+      <c r="F310" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="18.75">
+      <c r="A311" s="7">
+        <v>2326</v>
+      </c>
+      <c r="B311" s="4">
+        <v>2120416021</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E311" s="16">
+        <v>295</v>
+      </c>
+      <c r="F311" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="18.75">
+      <c r="A312" s="7">
+        <v>3356</v>
+      </c>
+      <c r="B312" s="4">
+        <v>2087688855</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E312" s="16">
+        <v>453</v>
+      </c>
+      <c r="F312" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="18.75">
+      <c r="A313" s="7">
+        <v>6088</v>
+      </c>
+      <c r="B313" s="4">
+        <v>2048073085</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E313" s="16">
+        <v>186</v>
+      </c>
+      <c r="F313" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="18.75">
+      <c r="A314" s="7">
+        <v>6087</v>
+      </c>
+      <c r="B314" s="4">
+        <v>2108776197</v>
+      </c>
+      <c r="C314" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E314" s="16">
+        <v>706</v>
+      </c>
+      <c r="F314" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="18.75">
+      <c r="A315" s="7">
+        <v>5402</v>
+      </c>
+      <c r="B315" s="4">
+        <v>2107404897</v>
+      </c>
+      <c r="C315" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E315" s="16">
+        <v>295</v>
+      </c>
+      <c r="F315" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="18.75">
+      <c r="A316" s="7">
+        <v>6085</v>
+      </c>
+      <c r="B316" s="4">
+        <v>2120149931</v>
+      </c>
+      <c r="C316" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E316" s="16">
+        <v>550</v>
+      </c>
+      <c r="F316" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="18.75">
+      <c r="A317" s="7">
+        <v>2133</v>
+      </c>
+      <c r="B317" s="4">
+        <v>2087897444</v>
+      </c>
+      <c r="C317" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E317" s="16">
+        <v>550</v>
+      </c>
+      <c r="F317" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="18.75">
+      <c r="A318" s="7">
+        <v>5178</v>
+      </c>
+      <c r="B318" s="4">
+        <v>2069560459</v>
+      </c>
+      <c r="C318" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E318" s="16">
+        <v>350</v>
+      </c>
+      <c r="F318" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="18.75">
+      <c r="A319" s="7">
+        <v>6084</v>
+      </c>
+      <c r="B319" s="4">
+        <v>2454454072</v>
+      </c>
+      <c r="C319" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E319" s="16">
+        <v>550</v>
+      </c>
+      <c r="F319" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="18.75">
+      <c r="A320" s="7">
+        <v>6083</v>
+      </c>
+      <c r="B320" s="4">
+        <v>2125760795</v>
+      </c>
+      <c r="C320" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E320" s="16">
+        <v>550</v>
+      </c>
+      <c r="F320" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="18.75">
+      <c r="A321" s="7">
+        <v>5182</v>
+      </c>
+      <c r="B321" s="4">
+        <v>2129436434</v>
+      </c>
+      <c r="C321" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E321" s="16">
+        <v>453</v>
+      </c>
+      <c r="F321" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="18.75">
+      <c r="A322" s="7">
+        <v>5561</v>
+      </c>
+      <c r="B322" s="4">
+        <v>2144839510</v>
+      </c>
+      <c r="C322" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E322" s="16">
+        <v>550</v>
+      </c>
+      <c r="F322" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="18.75">
+      <c r="A323" s="7">
+        <v>5047</v>
+      </c>
+      <c r="B323" s="4">
+        <v>2133604453</v>
+      </c>
+      <c r="C323" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E323" s="16">
+        <v>295</v>
+      </c>
+      <c r="F323" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="18.75">
+      <c r="A324" s="7">
+        <v>6082</v>
+      </c>
+      <c r="B324" s="4">
+        <v>2490453466</v>
+      </c>
+      <c r="C324" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324" s="16">
+        <v>453</v>
+      </c>
+      <c r="F324" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="18.75">
+      <c r="A325" s="7">
+        <v>6081</v>
+      </c>
+      <c r="B325" s="4">
+        <v>2074399821</v>
+      </c>
+      <c r="C325" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E325" s="16">
+        <v>400</v>
+      </c>
+      <c r="F325" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="18.75">
+      <c r="A326" s="7">
+        <v>4224</v>
+      </c>
+      <c r="B326" s="4">
+        <v>2121990275</v>
+      </c>
+      <c r="C326" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E326" s="16">
+        <v>550</v>
+      </c>
+      <c r="F326" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="18.75">
+      <c r="A327" s="7">
+        <v>6079</v>
+      </c>
+      <c r="B327" s="4">
+        <v>2126492211</v>
+      </c>
+      <c r="C327" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E327" s="1">
+        <v>400</v>
+      </c>
+      <c r="F327" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="18.75">
+      <c r="A328" s="7">
+        <v>6078</v>
+      </c>
+      <c r="B328" s="4">
+        <v>2071583682</v>
+      </c>
+      <c r="C328" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E328" s="1">
+        <v>706</v>
+      </c>
+      <c r="F328" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="18.75">
+      <c r="A329" s="7">
+        <v>4733</v>
+      </c>
+      <c r="B329" s="4">
+        <v>2064916579</v>
+      </c>
+      <c r="C329" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E329" s="1">
+        <v>453</v>
+      </c>
+      <c r="F329" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="18.75">
+      <c r="A330" s="7">
+        <v>4487</v>
+      </c>
+      <c r="B330" s="4">
+        <v>2091850959</v>
+      </c>
+      <c r="C330" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E330" s="1">
+        <v>550</v>
+      </c>
+      <c r="F330" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="18.75">
+      <c r="A331" s="7">
+        <v>6077</v>
+      </c>
+      <c r="B331" s="4">
+        <v>2107405745</v>
+      </c>
+      <c r="C331" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E331" s="1">
+        <v>295</v>
+      </c>
+      <c r="F331" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="18.75">
+      <c r="A332" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B332" s="4">
+        <v>2133322949</v>
+      </c>
+      <c r="C332" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D332" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E332" s="1">
+        <v>400</v>
+      </c>
+      <c r="F332" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="18.75">
+      <c r="A333" s="7">
+        <v>6076</v>
+      </c>
+      <c r="B333" s="4">
+        <v>2144328467</v>
+      </c>
+      <c r="C333" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E333" s="1">
+        <v>652</v>
+      </c>
+      <c r="F333" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="18.75">
+      <c r="A334" s="7">
+        <v>4735</v>
+      </c>
+      <c r="B334" s="4">
+        <v>2143363999</v>
+      </c>
+      <c r="C334" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E334" s="1">
+        <v>186</v>
+      </c>
+      <c r="F334" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="18.75">
+      <c r="A335" s="7">
+        <v>2906</v>
+      </c>
+      <c r="B335" s="4">
+        <v>2092236761</v>
+      </c>
+      <c r="C335" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E335" s="1">
+        <v>237</v>
+      </c>
+      <c r="F335" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="18.75">
+      <c r="A336" s="7">
+        <v>4584</v>
+      </c>
+      <c r="B336" s="4">
+        <v>2433131121</v>
+      </c>
+      <c r="C336" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E336" s="1">
+        <v>295</v>
+      </c>
+      <c r="F336" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="18.75">
+      <c r="A337" s="7">
+        <v>6111</v>
+      </c>
+      <c r="B337" s="4">
+        <v>2454447026</v>
+      </c>
+      <c r="C337" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E337" s="1">
+        <v>453</v>
+      </c>
+      <c r="F337" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="18.75">
+      <c r="A338" s="7">
+        <v>4766</v>
+      </c>
+      <c r="B338" s="4">
+        <v>2133606009</v>
+      </c>
+      <c r="C338" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E338" s="1">
+        <v>295</v>
+      </c>
+      <c r="F338" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="18.75">
+      <c r="A339" s="7">
+        <v>6110</v>
+      </c>
+      <c r="B339" s="4">
+        <v>2133732231</v>
+      </c>
+      <c r="C339" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E339" s="1">
+        <v>453</v>
+      </c>
+      <c r="F339" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="18.75">
+      <c r="A340" s="7">
+        <v>3995</v>
+      </c>
+      <c r="B340" s="4">
+        <v>2081423883</v>
+      </c>
+      <c r="C340" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E340" s="1">
+        <v>550</v>
+      </c>
+      <c r="F340" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="18.75">
+      <c r="A341" s="7">
+        <v>4638</v>
+      </c>
+      <c r="B341" s="4">
+        <v>2087361031</v>
+      </c>
+      <c r="C341" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E341" s="1">
+        <v>350</v>
+      </c>
+      <c r="F341" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="18.75">
+      <c r="A342" s="7">
+        <v>6109</v>
+      </c>
+      <c r="B342" s="4">
+        <v>2132719088</v>
+      </c>
+      <c r="C342" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E342" s="1">
+        <v>237</v>
+      </c>
+      <c r="F342" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="18.75">
+      <c r="A343" s="7">
+        <v>6108</v>
+      </c>
+      <c r="B343" s="4">
+        <v>2126379713</v>
+      </c>
+      <c r="C343" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E343" s="1">
+        <v>350</v>
+      </c>
+      <c r="F343" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="18.75">
+      <c r="A344" s="7">
+        <v>6124</v>
+      </c>
+      <c r="B344" s="4">
+        <v>2133732912</v>
+      </c>
+      <c r="C344" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E344" s="1">
+        <v>550</v>
+      </c>
+      <c r="F344" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="18.75">
+      <c r="A345" s="7">
+        <v>4519</v>
+      </c>
+      <c r="B345" s="4">
+        <v>2119439111</v>
+      </c>
+      <c r="C345" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E345" s="1">
+        <v>126</v>
+      </c>
+      <c r="F345" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="18.75">
+      <c r="A346" s="7">
+        <v>6122</v>
+      </c>
+      <c r="B346" s="4">
+        <v>2118751452</v>
+      </c>
+      <c r="C346" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D346" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E346" s="1">
+        <v>295</v>
+      </c>
+      <c r="F346" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="18.75">
+      <c r="A347" s="7">
+        <v>6121</v>
+      </c>
+      <c r="B347" s="4">
+        <v>2132720295</v>
+      </c>
+      <c r="C347" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E347" s="1">
+        <v>350</v>
+      </c>
+      <c r="F347" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="18.75">
+      <c r="A348" s="7">
+        <v>4089</v>
+      </c>
+      <c r="B348" s="4">
+        <v>2144838576</v>
+      </c>
+      <c r="C348" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D348" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E348" s="1">
+        <v>295</v>
+      </c>
+      <c r="F348" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="18.75">
+      <c r="A349" s="7">
+        <v>5419</v>
+      </c>
+      <c r="B349" s="4">
+        <v>2087362989</v>
+      </c>
+      <c r="C349" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E349" s="1">
+        <v>550</v>
+      </c>
+      <c r="F349" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="18.75">
+      <c r="A350" s="7">
+        <v>6119</v>
+      </c>
+      <c r="B350" s="4">
+        <v>2145582058</v>
+      </c>
+      <c r="C350" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E350" s="1">
+        <v>350</v>
+      </c>
+      <c r="F350" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="18.75">
+      <c r="A351" s="7">
+        <v>2761</v>
+      </c>
+      <c r="B351" s="4">
+        <v>2109482333</v>
+      </c>
+      <c r="C351" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E351" s="1">
+        <v>550</v>
+      </c>
+      <c r="F351" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="18.75">
+      <c r="A352" s="7">
+        <v>4344</v>
+      </c>
+      <c r="B352" s="4">
+        <v>2389127546</v>
+      </c>
+      <c r="C352" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D352" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E352" s="1">
+        <v>550</v>
+      </c>
+      <c r="F352" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="18.75">
+      <c r="A353" s="7">
+        <v>6117</v>
+      </c>
+      <c r="B353" s="4">
+        <v>2095698219</v>
+      </c>
+      <c r="C353" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E353" s="1">
+        <v>550</v>
+      </c>
+      <c r="F353" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="18.75">
+      <c r="A354" s="7">
+        <v>4842</v>
+      </c>
+      <c r="B354" s="4">
+        <v>2133729685</v>
+      </c>
+      <c r="C354" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D354" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E354" s="1">
+        <v>186</v>
+      </c>
+      <c r="F354" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="18.75">
+      <c r="A355" s="7">
+        <v>6116</v>
+      </c>
+      <c r="B355" s="4">
+        <v>2109463411</v>
+      </c>
+      <c r="C355" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E355" s="1">
+        <v>237</v>
+      </c>
+      <c r="F355" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="18.75">
+      <c r="A356" s="7">
+        <v>2676</v>
+      </c>
+      <c r="B356" s="4">
+        <v>2122722836</v>
+      </c>
+      <c r="C356" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E356" s="1">
+        <v>295</v>
+      </c>
+      <c r="F356" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="18.75">
+      <c r="A357" s="7">
+        <v>3227</v>
+      </c>
+      <c r="B357" s="4">
+        <v>2071410415</v>
+      </c>
+      <c r="C357" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E357" s="1">
+        <v>453</v>
+      </c>
+      <c r="F357" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="18.75">
+      <c r="A358" s="7">
+        <v>2262</v>
+      </c>
+      <c r="B358" s="4">
+        <v>2087379712</v>
+      </c>
+      <c r="C358" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E358" s="1">
+        <v>453</v>
+      </c>
+      <c r="F358" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="18.75">
+      <c r="A359" s="7">
+        <v>2987</v>
+      </c>
+      <c r="B359" s="4">
+        <v>2106649663</v>
+      </c>
+      <c r="C359" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E359" s="1">
+        <v>550</v>
+      </c>
+      <c r="F359" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="18.75">
+      <c r="A360" s="7">
+        <v>5922</v>
+      </c>
+      <c r="B360" s="4">
+        <v>2463580593</v>
+      </c>
+      <c r="C360" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E360" s="1">
+        <v>237</v>
+      </c>
+      <c r="F360" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="18.75">
+      <c r="A361" s="7">
+        <v>3027</v>
+      </c>
+      <c r="B361" s="4">
+        <v>2078709186</v>
+      </c>
+      <c r="C361" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E361" s="1">
+        <v>550</v>
+      </c>
+      <c r="F361" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="18.75">
+      <c r="A362" s="7">
+        <v>6114</v>
+      </c>
+      <c r="B362" s="4">
+        <v>2480250799</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E362" s="1">
+        <v>550</v>
+      </c>
+      <c r="F362" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="18.75">
+      <c r="A363" s="7">
+        <v>4708</v>
+      </c>
+      <c r="B363" s="4">
+        <v>2117492602</v>
+      </c>
+      <c r="C363" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E363" s="1">
+        <v>550</v>
+      </c>
+      <c r="F363" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="18.75">
+      <c r="A364" s="7">
+        <v>6113</v>
+      </c>
+      <c r="B364" s="4">
+        <v>2087361862</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D364" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E364" s="1">
+        <v>550</v>
+      </c>
+      <c r="F364" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="18.75">
+      <c r="A365" s="7">
+        <v>2298</v>
+      </c>
+      <c r="B365" s="4">
+        <v>2078749138</v>
+      </c>
+      <c r="C365" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E365" s="1">
+        <v>400</v>
+      </c>
+      <c r="F365" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="18.75">
+      <c r="A366" s="7">
+        <v>6132</v>
+      </c>
+      <c r="B366" s="4">
+        <v>2147276095</v>
+      </c>
+      <c r="C366" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D366" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E366" s="1">
+        <v>237</v>
+      </c>
+      <c r="F366" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="18.75">
+      <c r="A367" s="7">
+        <v>2278</v>
+      </c>
+      <c r="B367" s="4">
+        <v>2143569001</v>
+      </c>
+      <c r="C367" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D367" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E367" s="1">
+        <v>237</v>
+      </c>
+      <c r="F367" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="18.75">
+      <c r="A368" s="7">
+        <v>2962</v>
+      </c>
+      <c r="B368" s="4">
+        <v>2091478099</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D368" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E368" s="1">
+        <v>237</v>
+      </c>
+      <c r="F368" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="18.75">
+      <c r="A369" s="7">
+        <v>5308</v>
+      </c>
+      <c r="B369" s="4">
+        <v>2112039842</v>
+      </c>
+      <c r="C369" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E369" s="1">
+        <v>237</v>
+      </c>
+      <c r="F369" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="18.75">
+      <c r="A370" s="7">
+        <v>4355</v>
+      </c>
+      <c r="B370" s="4">
+        <v>2145582674</v>
+      </c>
+      <c r="C370" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D370" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E370" s="1">
+        <v>295</v>
+      </c>
+      <c r="F370" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="18.75">
+      <c r="A371" s="7">
+        <v>6130</v>
+      </c>
+      <c r="B371" s="4">
+        <v>2086201974</v>
+      </c>
+      <c r="C371" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D371" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E371" s="1">
+        <v>295</v>
+      </c>
+      <c r="F371" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="18.75">
+      <c r="A372" s="7">
+        <v>2198</v>
+      </c>
+      <c r="B372" s="4">
+        <v>2108776126</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D372" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E372" s="1">
+        <v>237</v>
+      </c>
+      <c r="F372" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="18.75">
+      <c r="A373" s="7">
+        <v>6129</v>
+      </c>
+      <c r="B373" s="4">
+        <v>2103465058</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E373" s="1">
+        <v>295</v>
+      </c>
+      <c r="F373" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="18.75">
+      <c r="A374" s="7">
+        <v>3849</v>
+      </c>
+      <c r="B374" s="4">
+        <v>3099086656</v>
+      </c>
+      <c r="C374" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D374" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E374" s="1">
+        <v>453</v>
+      </c>
+      <c r="F374" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="18.75">
+      <c r="A375" s="7">
+        <v>2443</v>
+      </c>
+      <c r="B375" s="4">
+        <v>2144840400</v>
+      </c>
+      <c r="C375" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E375" s="1">
+        <v>350</v>
+      </c>
+      <c r="F375" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="18.75">
+      <c r="A376" s="7">
+        <v>5111</v>
+      </c>
+      <c r="B376" s="4">
+        <v>2118749976</v>
+      </c>
+      <c r="C376" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D376" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E376" s="12">
+        <v>453</v>
+      </c>
+      <c r="F376" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="18.75">
+      <c r="A377" s="7">
+        <v>6094</v>
+      </c>
+      <c r="B377" s="4">
+        <v>2078712825</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E377" s="12">
+        <v>350</v>
+      </c>
+      <c r="F377" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="18.75">
+      <c r="A378" s="7">
+        <v>6128</v>
+      </c>
+      <c r="B378" s="4">
+        <v>2130900752</v>
+      </c>
+      <c r="C378" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E378" s="12">
+        <v>550</v>
+      </c>
+      <c r="F378" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="18.75">
+      <c r="A379" s="7">
+        <v>6127</v>
+      </c>
+      <c r="B379" s="4">
+        <v>2100985609</v>
+      </c>
+      <c r="C379" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E379" s="12">
+        <v>295</v>
+      </c>
+      <c r="F379" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="18.75">
+      <c r="A380" s="7">
+        <v>4749</v>
+      </c>
+      <c r="B380" s="4">
+        <v>2121793733</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D380" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E380" s="12">
+        <v>295</v>
+      </c>
+      <c r="F380" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="18.75">
+      <c r="A381" s="7">
+        <v>6126</v>
+      </c>
+      <c r="B381" s="4">
+        <v>2479702802</v>
+      </c>
+      <c r="C381" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E381" s="12">
+        <v>453</v>
+      </c>
+      <c r="F381" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="18.75">
+      <c r="A382" s="7">
+        <v>6125</v>
+      </c>
+      <c r="B382" s="4">
+        <v>2091478841</v>
+      </c>
+      <c r="C382" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D382" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E382" s="12">
+        <v>295</v>
+      </c>
+      <c r="F382" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="18.75">
+      <c r="A383" s="7">
+        <v>3962</v>
+      </c>
+      <c r="B383" s="4">
+        <v>2064911317</v>
+      </c>
+      <c r="C383" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E383" s="12">
+        <v>453</v>
+      </c>
+      <c r="F383" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="18.75">
+      <c r="A384" s="7">
+        <v>6147</v>
+      </c>
+      <c r="B384" s="4">
+        <v>2072576001</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E384" s="12">
+        <v>295</v>
+      </c>
+      <c r="F384" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="18.75">
+      <c r="A385" s="7">
+        <v>6146</v>
+      </c>
+      <c r="B385" s="4">
+        <v>2064917015</v>
+      </c>
+      <c r="C385" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E385" s="12">
+        <v>400</v>
+      </c>
+      <c r="F385" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="18.75">
+      <c r="A386" s="7">
+        <v>6145</v>
+      </c>
+      <c r="B386" s="4">
+        <v>2133732295</v>
+      </c>
+      <c r="C386" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D386" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E386" s="12">
+        <v>295</v>
+      </c>
+      <c r="F386" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="18.75">
+      <c r="A387" s="7">
+        <v>6144</v>
+      </c>
+      <c r="B387" s="4">
+        <v>2138610181</v>
+      </c>
+      <c r="C387" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E387" s="12">
+        <v>815</v>
+      </c>
+      <c r="F387" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="18.75">
+      <c r="A388" s="7">
+        <v>6142</v>
+      </c>
+      <c r="B388" s="4">
+        <v>2147275864</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E388" s="12">
+        <v>453</v>
+      </c>
+      <c r="F388" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="18.75">
+      <c r="A389" s="7">
+        <v>6141</v>
+      </c>
+      <c r="B389" s="4">
+        <v>2126380466</v>
+      </c>
+      <c r="C389" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E389" s="12">
+        <v>453</v>
+      </c>
+      <c r="F389" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="18.75">
+      <c r="A390" s="7">
+        <v>6140</v>
+      </c>
+      <c r="B390" s="4">
+        <v>2144327738</v>
+      </c>
+      <c r="C390" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E390" s="12">
+        <v>295</v>
+      </c>
+      <c r="F390" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="18.75">
+      <c r="A391" s="7">
+        <v>6138</v>
+      </c>
+      <c r="B391" s="4">
+        <v>2074399362</v>
+      </c>
+      <c r="C391" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E391" s="12">
+        <v>400</v>
+      </c>
+      <c r="F391" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="18.75">
+      <c r="A392" s="7">
+        <v>6136</v>
+      </c>
+      <c r="B392" s="4">
+        <v>2064915531</v>
+      </c>
+      <c r="C392" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D392" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E392" s="12">
+        <v>295</v>
+      </c>
+      <c r="F392" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="18.75">
+      <c r="A393" s="7">
+        <v>5090</v>
+      </c>
+      <c r="B393" s="4">
+        <v>2079242800</v>
+      </c>
+      <c r="C393" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D393" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E393" s="12">
+        <v>350</v>
+      </c>
+      <c r="F393" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="18.75">
+      <c r="A394" s="7">
+        <v>2832</v>
+      </c>
+      <c r="B394" s="4">
+        <v>2086205802</v>
+      </c>
+      <c r="C394" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D394" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E394" s="12">
+        <v>126</v>
+      </c>
+      <c r="F394" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="18.75">
+      <c r="A395" s="7">
+        <v>5451</v>
+      </c>
+      <c r="B395" s="4">
+        <v>2103466877</v>
+      </c>
+      <c r="C395" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D395" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E395" s="12">
+        <v>550</v>
+      </c>
+      <c r="F395" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="18.75">
+      <c r="A396" s="7">
+        <v>5901</v>
+      </c>
+      <c r="B396" s="4">
+        <v>2082447551</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D396" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E396" s="12">
+        <v>550</v>
+      </c>
+      <c r="F396" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="18.75">
+      <c r="A397" s="7">
+        <v>2857</v>
+      </c>
+      <c r="B397" s="4">
+        <v>2088074292</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D397" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E397" s="12">
+        <v>295</v>
+      </c>
+      <c r="F397" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="18.75">
+      <c r="A398" s="7">
+        <v>6134</v>
+      </c>
+      <c r="B398" s="4">
+        <v>2147276199</v>
+      </c>
+      <c r="C398" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E398" s="12">
+        <v>550</v>
+      </c>
+      <c r="F398" s="4">
         <v>3</v>
       </c>
     </row>
